--- a/xlsx/海湾战争_intext.xlsx
+++ b/xlsx/海湾战争_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1248">
   <si>
     <t>海湾战争</t>
   </si>
@@ -29,19 +29,19 @@
     <t>海湾战争 (消歧义)</t>
   </si>
   <si>
-    <t>政策_政策_美國_海湾战争</t>
+    <t>政策_政策_美国_海湾战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E7%81%A3</t>
   </si>
   <si>
-    <t>波斯灣</t>
+    <t>波斯湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%AE%89%E7%90%86%E6%9C%83%E7%AC%AC678%E8%99%9F%E6%B1%BA%E8%AD%B0</t>
   </si>
   <si>
-    <t>聯合國安理會第678號決議</t>
+    <t>联合国安理会第678号决议</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Coalition_of_the_Gulf_War</t>
@@ -53,13 +53,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E7%83%8F%E5%9C%B0%E9%98%BF%E6%8B%89%E4%BC%AF</t>
   </si>
   <si>
-    <t>沙烏地阿拉伯</t>
+    <t>沙乌地阿拉伯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD</t>
@@ -119,13 +119,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%81%AF%E5%90%88%E5%A4%A7%E5%85%AC%E5%9C%8B</t>
   </si>
   <si>
-    <t>阿拉伯聯合大公國</t>
+    <t>阿拉伯联合大公国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E9%81%94</t>
   </si>
   <si>
-    <t>卡達</t>
+    <t>卡达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%8A%A0%E6%8B%89%E5%9B%BD</t>
@@ -137,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
-    <t>義大利</t>
+    <t>义大利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9A</t>
@@ -149,7 +149,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>荷蘭</t>
+    <t>荷兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%97%A5%E5%B0%94</t>
@@ -191,13 +191,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82</t>
   </si>
   <si>
-    <t>比利時</t>
+    <t>比利时</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD</t>
   </si>
   <si>
-    <t>波蘭</t>
+    <t>波兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%9F%A9%E6%B0%91%E5%9B%BD</t>
@@ -221,19 +221,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98</t>
   </si>
   <si>
-    <t>希臘</t>
+    <t>希腊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5</t>
   </si>
   <si>
-    <t>丹麥</t>
+    <t>丹麦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%A5%BF%E8%98%AD</t>
   </si>
   <si>
-    <t>新西蘭</t>
+    <t>新西兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%88%E7%89%99%E5%88%A9</t>
@@ -251,13 +251,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E6%9B%BC%C2%B7%E5%8F%B2%E7%93%A6%E8%8C%B2%E6%9F%AF%E5%A4%AB</t>
   </si>
   <si>
-    <t>諾曼·史瓦茲柯夫</t>
+    <t>诺曼·史瓦兹柯夫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E9%81%94%E5%A7%86%C2%B7%E4%BE%AF%E8%B3%BD%E5%9B%A0</t>
   </si>
   <si>
-    <t>薩達姆·侯賽因</t>
+    <t>萨达姆·侯赛因</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E7%89%B9%E9%98%BF%E6%8B%89%E4%BC%AF</t>
@@ -269,19 +269,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%AE%89%E7%90%86%E6%9C%83%E7%AC%AC660%E8%99%9F%E6%B1%BA%E8%AD%B0</t>
   </si>
   <si>
-    <t>聯合國安理會第660號決議</t>
+    <t>联合国安理会第660号决议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E8%BB%8D</t>
   </si>
   <si>
-    <t>美軍</t>
+    <t>美军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>越南戰爭</t>
+    <t>越南战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%8B%89%E5%85%8B%E6%88%98%E4%BA%89</t>
@@ -293,13 +293,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E6%BC%A0%E9%A2%A8%E6%9A%B4</t>
   </si>
   <si>
-    <t>沙漠風暴</t>
+    <t>沙漠风暴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E5%88%80</t>
   </si>
   <si>
-    <t>軍刀</t>
+    <t>军刀</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Operation_Desert_Farewell</t>
@@ -329,13 +329,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%9D%97%E8%9F%B2</t>
   </si>
   <si>
-    <t>蝗蟲</t>
+    <t>蝗虫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%8D%97%E4%BA%9E</t>
   </si>
   <si>
-    <t>西南亞</t>
+    <t>西南亚</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Operation_Provide_Comfort</t>
@@ -347,25 +347,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>第一次世界大戰</t>
+    <t>第一次世界大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%84%82%E5%9C%96%E6%9B%BC%E5%9C%9F%E8%80%B3%E5%85%B6%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>鄂圖曼土耳其帝國</t>
+    <t>鄂图曼土耳其帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A9%E4%BC%8A%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>兩伊戰爭</t>
+    <t>两伊战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%B3%E6%B2%B9%E8%BC%B8%E5%87%BA%E5%9C%8B%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>石油輸出國組織</t>
+    <t>石油输出国组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%B3%E6%B2%B9</t>
@@ -395,7 +395,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%AF%94%E5%80%AB</t>
   </si>
   <si>
-    <t>巴比倫</t>
+    <t>巴比伦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%8B%92%E6%96%AF%E5%9D%A6%E5%A4%A7%E8%B5%B7%E4%B9%89</t>
@@ -407,31 +407,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BF%AA%E5%85%8B%C2%B7%E9%8C%A2%E5%B0%BC</t>
   </si>
   <si>
-    <t>迪克·錢尼</t>
+    <t>迪克·钱尼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E7%88%BE%E5%9D%A6%C2%B7%E6%9C%AC%C2%B7%E9%98%BF%E5%8D%9C%E6%9D%9C%E5%8B%92-%E9%98%BF%E9%BD%8A%E8%8C%B2%C2%B7%E9%98%BF%E7%B4%B9%E5%BE%B7</t>
   </si>
   <si>
-    <t>蘇爾坦·本·阿卜杜勒-阿齊茲·阿紹德</t>
+    <t>苏尔坦·本·阿卜杜勒-阿齐兹·阿绍德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%97%E4%BC%8A%E6%96%AF%E8%98%AD%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>伊朗伊斯蘭革命</t>
+    <t>伊朗伊斯兰革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E8%81%AF</t>
   </si>
   <si>
-    <t>蘇聯</t>
+    <t>苏联</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%81%90%E6%80%96%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>恐怖主義</t>
+    <t>恐怖主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%93%E5%87%BA%E9%9D%A9%E5%91%BD</t>
@@ -443,7 +443,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>美國國會</t>
+    <t>美国国会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%AE%88%E6%B4%BE</t>
@@ -461,7 +461,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AE%91%E4%BC%AF%C2%B7%E6%9D%9C%E7%88%BE</t>
   </si>
   <si>
-    <t>鮑伯·杜爾</t>
+    <t>鲍伯·杜尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%94%E6%B2%BB%C2%B7H%C2%B7W%C2%B7%E5%B8%83%E4%BB%80</t>
@@ -473,31 +473,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%8B%99%E5%8D%BF</t>
   </si>
   <si>
-    <t>美國國務卿</t>
+    <t>美国国务卿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E8%B2%9D%E5%85%8B</t>
   </si>
   <si>
-    <t>詹姆斯·貝克</t>
+    <t>詹姆斯·贝克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A9%E5%BE%B7%E7%B5%B1%E4%B8%80</t>
   </si>
   <si>
-    <t>兩德統一</t>
+    <t>两德统一</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E6%83%85%E5%A0%B1%E5%B1%80</t>
   </si>
   <si>
-    <t>中央情報局</t>
+    <t>中央情报局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E9%83%B5%E5%A0%B1</t>
   </si>
   <si>
-    <t>華盛頓郵報</t>
+    <t>华盛顿邮报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%A4%96%E4%BA%A4%E9%83%A8</t>
@@ -509,7 +509,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9C%B8%E6%AC%8A</t>
   </si>
   <si>
-    <t>霸權</t>
+    <t>霸权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E7%BE%8E</t>
@@ -545,37 +545,37 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E7%B1%B3%E7%88%BE</t>
   </si>
   <si>
-    <t>埃米爾</t>
+    <t>埃米尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%87%8C%C2%B7%E5%93%88%E6%A1%91%C2%B7%E9%A6%AC%E5%90%89%E5%BE%B7</t>
   </si>
   <si>
-    <t>阿里·哈桑·馬吉德</t>
+    <t>阿里·哈桑·马吉德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%AE%89%E7%90%86%E6%9C%83</t>
   </si>
   <si>
-    <t>聯合國安理會</t>
+    <t>联合国安理会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>阿拉伯聯盟</t>
+    <t>阿拉伯联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%AE%89%E7%90%86%E6%9C%83%E7%AC%AC661%E8%99%9F%E6%B1%BA%E8%AD%B0</t>
   </si>
   <si>
-    <t>聯合國安理會第661號決議</t>
+    <t>联合国安理会第661号决议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A3%9F%E6%96%B7</t>
   </si>
   <si>
-    <t>壟斷</t>
+    <t>垄断</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
@@ -587,13 +587,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E5%8A%A0</t>
   </si>
   <si>
-    <t>麥加</t>
+    <t>麦加</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E5%9C%B0%E9%82%A3</t>
   </si>
   <si>
-    <t>麥地那</t>
+    <t>麦地那</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%AF%8C%E6%B1%97</t>
@@ -605,13 +605,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%8B%89%E5%85%8B%E5%9C%8B%E6%97%97</t>
   </si>
   <si>
-    <t>伊拉克國旗</t>
+    <t>伊拉克国旗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E8%98%AD%E7%B6%93</t>
   </si>
   <si>
-    <t>古蘭經</t>
+    <t>古兰经</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%B5%9E%E8%BE%9E</t>
@@ -629,27 +629,24 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%89%BE%E6%A3%AE%E8%B1%AA%E8%99%9F%E8%88%AA%E7%A9%BA%E6%AF%8D%E8%89%A6</t>
   </si>
   <si>
-    <t>美國艾森豪號航空母艦</t>
+    <t>美国艾森豪号航空母舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E7%AB%8B%E8%99%9F%E8%88%AA%E7%A9%BA%E6%AF%8D%E8%89%A6_(CV-62)</t>
   </si>
   <si>
-    <t>獨立號航空母艦 (CV-62)</t>
+    <t>独立号航空母舰 (CV-62)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%B5%B7%E8%BB%8D</t>
   </si>
   <si>
-    <t>美國海軍</t>
+    <t>美国海军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>澳大利亞</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%8A%A0%E6%8B%89</t>
   </si>
   <si>
@@ -659,13 +656,10 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
   </si>
   <si>
-    <t>法國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%AA%E9%83%BD%E6%8B%89%E6%96%AF</t>
@@ -683,9 +677,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%97%A5%E7%88%BE</t>
   </si>
   <si>
-    <t>尼日爾</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99</t>
   </si>
   <si>
@@ -695,27 +686,18 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%A1%94%E7%88%BE</t>
   </si>
   <si>
-    <t>卡塔爾</t>
+    <t>卡塔尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%85%A7%E5%8A%A0%E7%88%BE</t>
   </si>
   <si>
-    <t>塞內加爾</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%9F%93%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>大韓民國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%98%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>敘利亞</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6</t>
   </si>
   <si>
@@ -725,13 +707,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%81%AF%E5%90%88%E9%85%8B%E9%95%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>阿拉伯聯合酋長國</t>
+    <t>阿拉伯联合酋长国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%AC%8A</t>
   </si>
   <si>
-    <t>人權</t>
+    <t>人权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%B8%E6%AD%A6%E5%99%A8</t>
@@ -743,7 +725,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A6%8F%E6%A8%A1%E6%AE%BA%E5%82%B7%E6%80%A7%E6%AD%A6%E5%99%A8</t>
   </si>
   <si>
-    <t>大規模殺傷性武器</t>
+    <t>大规模杀伤性武器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%8E%E5%B7%B4%E5%AB%A9</t>
@@ -767,13 +749,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E8%96%A9%E8%B5%B0%E5%BB%8A</t>
   </si>
   <si>
-    <t>加薩走廊</t>
+    <t>加萨走廊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%88%E8%98%AD%E9%AB%98%E5%9C%B0</t>
   </si>
   <si>
-    <t>戈蘭高地</t>
+    <t>戈兰高地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/F-15E</t>
@@ -797,7 +779,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%86%E6%9D%9F%E7%82%B8%E5%BD%88</t>
   </si>
   <si>
-    <t>集束炸彈</t>
+    <t>集束炸弹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%BA%E6%B0%94%E7%82%B8%E5%BC%B9</t>
@@ -815,7 +797,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9B%E6%AF%9B%E8%85%BF%E5%B0%8E%E5%BD%88</t>
   </si>
   <si>
-    <t>飛毛腿導彈</t>
+    <t>飞毛腿导弹</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/VFA-81</t>
@@ -827,19 +809,19 @@
     <t>https://zh.wikipedia.org/wiki/F/A-18%E9%BB%83%E8%9C%82%E5%BC%8F%E6%88%B0%E9%AC%A5%E6%94%BB%E6%93%8A%E6%A9%9F</t>
   </si>
   <si>
-    <t>F/A-18黃蜂式戰鬥攻擊機</t>
+    <t>F/A-18黄蜂式战斗攻击机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E6%A0%BC-25%E6%88%B0%E9%AC%A5%E6%A9%9F</t>
   </si>
   <si>
-    <t>米格-25戰鬥機</t>
+    <t>米格-25战斗机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%8E%E5%8F%AF%E5%81%B5%E6%B8%AC%E6%80%A7%E6%8A%80%E8%A1%93</t>
   </si>
   <si>
-    <t>低可偵測性技術</t>
+    <t>低可侦测性技术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E5%AF%B9%E7%A9%BA%E5%AF%BC%E5%BC%B9</t>
@@ -851,7 +833,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%88%AA%E7%A9%BA%E6%AF%8D%E8%89%A6</t>
   </si>
   <si>
-    <t>航空母艦</t>
+    <t>航空母舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E6%A0%BC</t>
@@ -863,31 +845,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E9%9B%BB%E5%BB%A0</t>
   </si>
   <si>
-    <t>發電廠</t>
+    <t>发电厂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%85%89%E6%B2%B9%E5%BB%A0</t>
   </si>
   <si>
-    <t>煉油廠</t>
+    <t>炼油厂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%90%B5%E8%B7%AF</t>
   </si>
   <si>
-    <t>鐵路</t>
+    <t>铁路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A9%8B%E6%A8%91</t>
   </si>
   <si>
-    <t>橋樑</t>
+    <t>桥樑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%B8%E9%9B%BB%E7%AB%99</t>
   </si>
   <si>
-    <t>核電站</t>
+    <t>核电站</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%9D%9D</t>
@@ -899,7 +881,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%A0%BC%E9%81%94</t>
   </si>
   <si>
-    <t>巴格達</t>
+    <t>巴格达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%B2%E7%A9%BA%E6%B4%9E</t>
@@ -911,19 +893,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E6%97%A6</t>
   </si>
   <si>
-    <t>約旦</t>
+    <t>约旦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%B5%B7%E8%BB%8D%E9%99%B8%E6%88%B0%E9%9A%8A</t>
   </si>
   <si>
-    <t>美國海軍陸戰隊</t>
+    <t>美国海军陆战队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%AC%AC1%E6%B5%B7%E8%BB%8D%E9%99%B8%E6%88%B0%E5%B8%AB</t>
   </si>
   <si>
-    <t>美國第1海軍陸戰師</t>
+    <t>美国第1海军陆战师</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/2nd_Marine_Division_(United_States)</t>
@@ -935,25 +917,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%99%B8%E8%BB%8D%E7%AC%AC2%E8%A3%9D%E7%94%B2%E5%B8%AB</t>
   </si>
   <si>
-    <t>美國陸軍第2裝甲師</t>
+    <t>美国陆军第2装甲师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%99%B8%E8%BB%8D%E7%AC%AC7%E8%BB%8D</t>
   </si>
   <si>
-    <t>美國陸軍第7軍</t>
+    <t>美国陆军第7军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%99%B8%E8%BB%8D%E7%AC%AC1%E6%AD%A5%E5%85%B5%E5%B8%AB</t>
   </si>
   <si>
-    <t>美國陸軍第1步兵師</t>
+    <t>美国陆军第1步兵师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%99%B8%E8%BB%8D%E7%AC%AC1%E9%A8%8E%E5%85%B5%E5%B8%AB</t>
   </si>
   <si>
-    <t>美國陸軍第1騎兵師</t>
+    <t>美国陆军第1骑兵师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%99%86%E5%86%9B%E7%AC%AC1%E8%A3%85%E7%94%B2%E5%B8%88</t>
@@ -977,13 +959,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A7%90%E5%BE%B7%E8%8B%B1%E8%BB%8D</t>
   </si>
   <si>
-    <t>駐德英軍</t>
+    <t>驻德英军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%8B%89%E5%85%8B%E5%85%B1%E5%92%8C%E5%9C%8B%E8%A1%9B%E9%9A%8A</t>
   </si>
   <si>
-    <t>伊拉克共和國衛隊</t>
+    <t>伊拉克共和国卫队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%85</t>
@@ -995,13 +977,13 @@
     <t>https://zh.wikipedia.org/wiki/M1%E8%89%BE%E5%B8%83%E8%98%AD%E4%B8%BB%E5%8A%9B%E6%88%B0%E8%BB%8A</t>
   </si>
   <si>
-    <t>M1艾布蘭主力戰車</t>
+    <t>M1艾布兰主力战车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%99%B8%E8%BB%8D%E7%AC%AC18%E7%A9%BA%E9%99%8D%E8%BB%8D</t>
   </si>
   <si>
-    <t>美國陸軍第18空降軍</t>
+    <t>美国陆军第18空降军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%96%E5%AD%A6%E6%AD%A6%E5%99%A8</t>
@@ -1013,15 +995,9 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%A4%E4%BC%8A%E6%88%98%E4%BA%89</t>
   </si>
   <si>
-    <t>两伊战争</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%96%E5%AD%B8%E6%AD%A6%E5%99%A8</t>
   </si>
   <si>
-    <t>化學武器</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E6%9E%97%C2%B7%E9%B2%8D%E5%A8%81%E5%B0%94</t>
   </si>
   <si>
@@ -1037,13 +1013,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B9%BC%E7%99%BC%E6%8B%89%E5%BA%95%E6%B2%B3</t>
   </si>
   <si>
-    <t>幼發拉底河</t>
+    <t>幼发拉底河</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E9%81%94%E5%A7%86</t>
   </si>
   <si>
-    <t>薩達姆</t>
+    <t>萨达姆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF</t>
@@ -1061,7 +1037,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%99%B8%E8%BB%8D</t>
   </si>
   <si>
-    <t>美國陸軍</t>
+    <t>美国陆军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A6%E8%A3%85%E7%9B%B4%E5%8D%87%E6%9C%BA</t>
@@ -1073,13 +1049,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BA%AB%E7%88%BE%E5%BE%B7%E4%BA%BA</t>
   </si>
   <si>
-    <t>庫爾德人</t>
+    <t>库尔德人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E8%AE%8A</t>
   </si>
   <si>
-    <t>政變</t>
+    <t>政变</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%8B%92%E6%96%AF%E5%9D%A6%E4%BA%BA</t>
@@ -1091,31 +1067,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%BB%8D</t>
   </si>
   <si>
-    <t>法軍</t>
+    <t>法军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E4%BC%8A%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>美伊戰爭</t>
+    <t>美伊战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%81%9E%E8%87%AA%E7%94%B1</t>
   </si>
   <si>
-    <t>新聞自由</t>
+    <t>新闻自由</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A8%98%E8%80%85</t>
   </si>
   <si>
-    <t>記者</t>
+    <t>记者</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E6%BC%A0%E8%A5%B2%E6%93%8A%E8%A1%8C%E5%8B%95</t>
   </si>
   <si>
-    <t>沙漠襲擊行動</t>
+    <t>沙漠袭击行动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E6%BC%A0%E4%B9%8B%E7%8B%90%E8%A1%8C%E5%8A%A8</t>
@@ -1133,7 +1109,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%85%92%E7%AB%A5%E5%9F%BA%E9%87%91%E6%9C%83</t>
   </si>
   <si>
-    <t>聯合國兒童基金會</t>
+    <t>联合国儿童基金会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%B9%E9%81%93%E5%AF%BC%E5%BC%B9</t>
@@ -1163,7 +1139,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>中亞</t>
+    <t>中亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%85%E7%9C%9F%E5%AF%BA</t>
@@ -1181,7 +1157,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E5%9C%8B%E8%80%85%E9%A3%9B%E5%BD%88</t>
   </si>
   <si>
-    <t>愛國者飛彈</t>
+    <t>爱国者飞弹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/HEMTT</t>
@@ -1193,13 +1169,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E7%A2%BA%E5%88%B6%E5%B0%8E%E6%AD%A6%E5%99%A8</t>
   </si>
   <si>
-    <t>精確制導武器</t>
+    <t>精确制导武器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A9%BA%E8%BB%8D</t>
   </si>
   <si>
-    <t>美國空軍</t>
+    <t>美国空军</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/AGM-130</t>
@@ -1211,25 +1187,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E5%9C%8B%E8%80%85%E5%B0%8E%E5%BD%88</t>
   </si>
   <si>
-    <t>愛國者導彈</t>
+    <t>爱国者导弹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E5%AE%9A%E4%BD%8D%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>全球定位系統</t>
+    <t>全球定位系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%BA%E4%B8%AD%E9%A0%90%E8%AD%A6%E6%A9%9F</t>
   </si>
   <si>
-    <t>空中預警機</t>
+    <t>空中预警机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%9B%E6%98%9F</t>
   </si>
   <si>
-    <t>衛星</t>
+    <t>卫星</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E6%A0%BC-25</t>
@@ -1241,7 +1217,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E6%A0%BC-27%E6%94%BB%E6%93%8A%E6%A9%9F</t>
   </si>
   <si>
-    <t>米格-27攻擊機</t>
+    <t>米格-27攻击机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/MiG-29</t>
@@ -1253,7 +1229,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3-8%E7%9B%B4%E5%8D%87%E6%A9%9F</t>
   </si>
   <si>
-    <t>米-8直升機</t>
+    <t>米-8直升机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/T-72</t>
@@ -1283,13 +1259,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9B%E6%AF%9B%E8%85%BF%E9%A3%9B%E5%BD%88</t>
   </si>
   <si>
-    <t>飛毛腿飛彈</t>
+    <t>飞毛腿飞弹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%B2%E7%A9%BA%E9%A3%9B%E5%BD%88</t>
   </si>
   <si>
-    <t>防空飛彈</t>
+    <t>防空飞弹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E9%9B%B7</t>
@@ -1301,7 +1277,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B9%BB%E8%B1%A1F1%E6%88%B0%E9%AC%A5%E6%A9%9F</t>
   </si>
   <si>
-    <t>幻象F1戰鬥機</t>
+    <t>幻象F1战斗机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/F-14</t>
@@ -1313,9 +1289,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
   </si>
   <si>
-    <t>美国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/F-15</t>
   </si>
   <si>
@@ -1325,15 +1298,12 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BE%8D%E6%8D%B2%E9%A2%A8%E6%88%B0%E6%A9%9F</t>
   </si>
   <si>
-    <t>龍捲風戰機</t>
+    <t>龙捲风战机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9B%BD</t>
   </si>
   <si>
-    <t>德国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2%E8%B1%B9%E6%88%98%E6%96%97%E6%9C%BA</t>
   </si>
   <si>
@@ -1349,7 +1319,7 @@
     <t>https://zh.wikipedia.org/wiki/F-117%E5%A4%9C%E9%B7%B9%E6%88%B0%E9%AC%A5%E6%A9%9F</t>
   </si>
   <si>
-    <t>F-117夜鷹戰鬥機</t>
+    <t>F-117夜鹰战斗机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/F-16%E6%88%98%E6%96%97%E6%9C%BA</t>
@@ -1403,13 +1373,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E8%B2%93%E5%BC%8F%E7%9B%B4%E5%8D%87%E6%A9%9F</t>
   </si>
   <si>
-    <t>山貓式直升機</t>
+    <t>山猫式直升机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/AMX-30%E4%B8%BB%E5%8A%9B%E6%88%B0%E8%BB%8A</t>
   </si>
   <si>
-    <t>AMX-30主力戰車</t>
+    <t>AMX-30主力战车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%B92%E5%9E%8B%E5%9D%A6%E5%85%8B</t>
@@ -1433,7 +1403,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8C%91%E6%88%B0%E8%80%851%E5%BC%8F%E6%88%B0%E8%BB%8A</t>
   </si>
   <si>
-    <t>挑戰者1式戰車</t>
+    <t>挑战者1式战车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/M113%E8%A3%85%E7%94%B2%E8%BF%90%E5%85%B5%E8%BD%A6</t>
@@ -1445,13 +1415,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%82%8D%E9%A6%AC_(%E8%BB%8D%E7%94%A8%E6%B1%BD%E8%BB%8A)</t>
   </si>
   <si>
-    <t>悍馬 (軍用汽車)</t>
+    <t>悍马 (军用汽车)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/M270%E5%A4%9A%E7%AE%A1%E7%81%AB%E7%AE%AD%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>M270多管火箭系統</t>
+    <t>M270多管火箭系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/M109%E8%87%AA%E8%B5%B0%E7%A0%B2</t>
@@ -1463,13 +1433,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E8%BE%B2%E7%A0%B2</t>
   </si>
   <si>
-    <t>加農砲</t>
+    <t>加农砲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A9%9F%E6%A7%8D</t>
   </si>
   <si>
-    <t>機槍</t>
+    <t>机枪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E5%85%AD%E8%88%B0%E9%98%9F</t>
@@ -1487,43 +1457,43 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E7%9A%87%E5%AE%B6%E6%B5%B7%E8%BB%8D</t>
   </si>
   <si>
-    <t>英國皇家海軍</t>
+    <t>英国皇家海军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E6%B5%B7%E8%BB%8D</t>
   </si>
   <si>
-    <t>西班牙海軍</t>
+    <t>西班牙海军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E6%B5%B7%E8%BB%8D</t>
   </si>
   <si>
-    <t>法國海軍</t>
+    <t>法国海军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E7%A2%BA%E5%B0%8E%E5%BC%95%E6%AD%A6%E5%99%A8</t>
   </si>
   <si>
-    <t>精確導引武器</t>
+    <t>精确导引武器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E6%96%A7%E5%B7%A1%E5%BC%8B%E9%A3%9B%E5%BD%88</t>
   </si>
   <si>
-    <t>戰斧巡弋飛彈</t>
+    <t>战斧巡弋飞弹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/AGM-65%E5%B0%8F%E7%89%9B%E9%A3%9B%E5%BD%88</t>
   </si>
   <si>
-    <t>AGM-65小牛飛彈</t>
+    <t>AGM-65小牛飞弹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/AGM-84%E9%AD%9A%E5%8F%89%E5%8F%8D%E8%89%A6%E9%A3%9B%E5%BD%88</t>
   </si>
   <si>
-    <t>AGM-84魚叉反艦飛彈</t>
+    <t>AGM-84鱼叉反舰飞弹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/AGM-45%E7%99%BE%E8%88%8C%E9%B8%9F%E5%AF%BC%E5%BC%B9</t>
@@ -1535,37 +1505,37 @@
     <t>https://zh.wikipedia.org/wiki/AIM-9%E9%9F%BF%E5%B0%BE%E8%9B%87%E9%A3%9B%E5%BD%88</t>
   </si>
   <si>
-    <t>AIM-9響尾蛇飛彈</t>
+    <t>AIM-9响尾蛇飞弹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/AIM-7%E9%BA%BB%E9%9B%80%E9%A3%9B%E5%BD%88</t>
   </si>
   <si>
-    <t>AIM-7麻雀飛彈</t>
+    <t>AIM-7麻雀飞弹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E9%96%83%E7%A9%BA%E5%B0%8D%E7%A9%BA%E9%A3%9B%E5%BD%88</t>
   </si>
   <si>
-    <t>天閃空對空飛彈</t>
+    <t>天闪空对空飞弹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E7%B7%9A%E5%8B%87%E6%B0%A3</t>
   </si>
   <si>
-    <t>火線勇氣</t>
+    <t>火线勇气</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%AA%E5%AF%B6%E5%A4%A7%E4%BD%9C%E6%88%B0</t>
   </si>
   <si>
-    <t>奪寶大作戰</t>
+    <t>夺宝大作战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8D%8B%E8%93%8B%E9%A0%AD</t>
   </si>
   <si>
-    <t>鍋蓋頭</t>
+    <t>锅盖头</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/1973_Samita_border_skirmish</t>
@@ -1613,7 +1583,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%AF%94%E5%80%AB%E4%B9%8B%E7%8D%85%E5%9D%A6%E5%85%8B</t>
   </si>
   <si>
-    <t>巴比倫之獅坦克</t>
+    <t>巴比伦之狮坦克</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_Gulf_War_military_equipment</t>
@@ -1655,7 +1625,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B%E8%A1%9D%E7%AA%81</t>
   </si>
   <si>
-    <t>軍事衝突</t>
+    <t>军事冲突</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%83%E6%9C%88%E9%9D%A9%E5%91%BD</t>
@@ -1667,7 +1637,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E4%BA%8C%E6%9C%88%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>法國二月革命</t>
+    <t>法国二月革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%BB%8E%E5%85%AC%E7%A4%BE</t>
@@ -1679,7 +1649,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%A9%E6%B4%BB%E8%A1%8C%E5%8B%95</t>
   </si>
   <si>
-    <t>復活行動</t>
+    <t>复活行动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A%E7%8B%AC%E7%AB%8B%E6%88%98%E4%BA%89</t>
@@ -1691,19 +1661,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E9%B4%89%E7%89%87%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>第二次鴉片戰爭</t>
+    <t>第二次鸦片战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E7%B1%B3%E4%BA%9E%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>克里米亞戰爭</t>
+    <t>克里米亚战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E6%AD%A6%E8%A3%9D%E5%B9%B2%E6%B6%89%E5%A2%A8%E8%A5%BF%E5%93%A5</t>
   </si>
   <si>
-    <t>法國武裝干涉墨西哥</t>
+    <t>法国武装干涉墨西哥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E6%84%8F%E5%A4%A7%E5%88%A9%E7%8B%AC%E7%AB%8B%E6%88%98%E4%BA%89</t>
@@ -1715,25 +1685,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%9C%BB%E9%81%A0%E5%BE%81</t>
   </si>
   <si>
-    <t>南圻遠征</t>
+    <t>南圻远征</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%99%E5%AF%85%E6%B4%8B%E6%93%BE</t>
   </si>
   <si>
-    <t>丙寅洋擾</t>
+    <t>丙寅洋扰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E6%B3%95%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>普法戰爭</t>
+    <t>普法战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%9C%BB%E9%81%A0%E5%BE%81</t>
   </si>
   <si>
-    <t>北圻遠征</t>
+    <t>北圻远征</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%B3%95%E6%88%98%E4%BA%89</t>
@@ -1751,9 +1721,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%98</t>
   </si>
   <si>
-    <t>第一次世界大战</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8F%E7%BA%A6%E5%9B%BD%E6%AD%A6%E8%A3%85%E5%B9%B2%E6%B6%89%E4%BF%84%E5%9B%BD%E5%86%85%E6%88%98</t>
   </si>
   <si>
@@ -1763,55 +1730,55 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E6%95%98%E5%88%A9%E4%BA%9E%E8%A8%97%E7%AE%A1%E5%9C%B0</t>
   </si>
   <si>
-    <t>法屬敘利亞託管地</t>
+    <t>法属叙利亚讬管地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>第二次世界大戰</t>
+    <t>第二次世界大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E6%88%B0</t>
   </si>
   <si>
-    <t>韓戰</t>
+    <t>韩战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E5%8D%B0%E5%BA%A6%E6%94%AF%E9%82%A3%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>第一次印度支那戰爭</t>
+    <t>第一次印度支那战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%AD%E6%9D%B1%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>第二次中東戰爭</t>
+    <t>第二次中东战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E5%8F%8A%E5%88%A9%E4%BA%9E%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>阿爾及利亞戰爭</t>
+    <t>阿尔及利亚战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%9D%9E%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>中非帝國</t>
+    <t>中非帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%8E%E5%B7%B4%E5%AB%A9%E5%85%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>黎巴嫩內戰</t>
+    <t>黎巴嫩内战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%B4%A2%E6%B2%83%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>科索沃戰爭</t>
+    <t>科索沃战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BA%A6%E8%BD%B0%E7%82%B8%E5%8D%97%E6%96%AF%E6%8B%89%E5%A4%AB</t>
@@ -1823,13 +1790,10 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%AF%8C%E6%B1%97%E6%88%B0%E7%88%AD_(2001%E5%B9%B4)</t>
   </si>
   <si>
-    <t>阿富汗戰爭 (2001年)</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%A1%E7%89%99%E6%B5%B7%E5%B2%B8%E9%9D%A9%E5%91%BD%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>象牙海岸革命戰爭</t>
+    <t>象牙海岸革命战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2011%E5%B9%B4%E5%A4%9A%E5%9B%BD%E6%AD%A6%E8%A3%85%E5%B9%B2%E6%B6%89%E5%88%A9%E6%AF%94%E4%BA%9A</t>
@@ -1853,19 +1817,19 @@
     <t>https://zh.wikipedia.org/wiki/2014-2015%E5%B9%B4%E5%9C%A8%E6%95%98%E5%88%A9%E4%BA%9E%E9%87%9D%E5%B0%8D%E4%BC%8A%E6%96%AF%E8%98%AD%E5%9C%8B%E7%9A%84%E7%A9%BA%E8%A5%B2</t>
   </si>
   <si>
-    <t>2014-2015年在敘利亞針對伊斯蘭國的空襲</t>
+    <t>2014-2015年在叙利亚针对伊斯兰国的空袭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E8%BB%8D%E4%BA%8B%E5%8F%B2</t>
   </si>
   <si>
-    <t>法國軍事史</t>
+    <t>法国军事史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>法國軍事</t>
+    <t>法国军事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%BE%8E%E5%9B%BD%E5%8F%82%E6%88%98</t>
@@ -1901,7 +1865,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E4%BB%96%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>猶他戰爭</t>
+    <t>犹他战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8C%97%E6%88%98%E4%BA%89</t>
@@ -1919,7 +1883,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%8D%A8%E7%AB%8B%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>美國獨立戰爭</t>
+    <t>美国独立战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%8D%B0%E7%AC%AC%E5%AE%89%E6%88%98%E4%BA%89</t>
@@ -1955,25 +1919,22 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%A2%A8%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>美墨戰爭</t>
+    <t>美墨战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E9%B8%A6%E7%89%87%E6%88%98%E4%BA%89</t>
   </si>
   <si>
-    <t>第二次鸦片战争</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A6%8F%E7%88%BE%E6%91%A9%E6%B2%99%E9%81%A0%E5%BE%81</t>
   </si>
   <si>
-    <t>美國福爾摩沙遠征</t>
+    <t>美国福尔摩沙远征</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%9B%E6%9C%AA%E6%B4%8B%E6%93%BE</t>
   </si>
   <si>
-    <t>辛未洋擾</t>
+    <t>辛未洋扰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E8%A5%BF%E6%88%98%E4%BA%89</t>
@@ -1991,15 +1952,12 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BD%94%E9%A0%98%E6%B5%B7%E5%9C%B0</t>
   </si>
   <si>
-    <t>美國佔領海地</t>
+    <t>美国佔领海地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%98</t>
   </si>
   <si>
-    <t>第二次世界大战</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%B2%9C%E6%88%98%E4%BA%89</t>
   </si>
   <si>
@@ -2009,13 +1967,10 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E6%88%98%E4%BA%89</t>
   </si>
   <si>
-    <t>越南战争</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A5%E4%BE%B5%E6%A0%BC%E6%9E%97%E7%B4%8D%E9%81%94</t>
   </si>
   <si>
-    <t>入侵格林納達</t>
+    <t>入侵格林纳达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%9A%E6%9E%9C%E5%86%85%E6%88%98</t>
@@ -2033,25 +1988,22 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%85%A5%E4%BE%B5%E5%B7%B4%E6%8B%BF%E9%A6%AC</t>
   </si>
   <si>
-    <t>美國入侵巴拿馬</t>
+    <t>美国入侵巴拿马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E7%81%A3%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>海灣戰爭</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E5%8A%A0%E8%BF%AA%E6%B2%99%E4%B9%8B%E6%88%B0</t>
   </si>
   <si>
-    <t>摩加迪沙之戰</t>
+    <t>摩加迪沙之战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E5%B0%BC%E4%BA%9E%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>波斯尼亞戰爭</t>
+    <t>波斯尼亚战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%9F%BA%E6%96%AF%E5%9D%A6%E8%A5%BF%E5%8C%97%E9%83%A8%E6%88%98%E4%BA%89</t>
@@ -2063,31 +2015,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%98%E5%88%A9%E4%BA%9E%E5%85%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>敘利亞內戰</t>
+    <t>叙利亚内战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2014%E5%B9%B4%E5%9C%A8%E6%95%98%E5%88%A9%E4%BA%9E%E9%87%9D%E5%B0%8D%E4%BC%8A%E6%96%AF%E8%98%AD%E5%9C%8B%E7%9A%84%E7%A9%BA%E8%A5%B2</t>
   </si>
   <si>
-    <t>2014年在敘利亞針對伊斯蘭國的空襲</t>
+    <t>2014年在叙利亚针对伊斯兰国的空袭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8D%E4%BC%8A%E6%96%AF%E8%98%AD%E5%9C%8B%E7%9A%84%E8%BB%8D%E4%BA%8B%E6%89%93%E6%93%8A</t>
   </si>
   <si>
-    <t>對伊斯蘭國的軍事打擊</t>
+    <t>对伊斯兰国的军事打击</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%88%B0%E7%88%AD%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國戰爭列表</t>
+    <t>美国战争列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>美國軍事</t>
+    <t>美国军事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%89%B9%E7%A7%8D%E4%BD%9C%E6%88%98%E5%8F%B8%E4%BB%A4%E9%83%A8</t>
@@ -2105,13 +2057,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%99%B8%E8%BB%8D%E7%89%B9%E7%A8%AE%E9%83%A8%E9%9A%8A</t>
   </si>
   <si>
-    <t>美國陸軍特種部隊</t>
+    <t>美国陆军特种部队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC75%E6%B8%B8%E9%A8%8E%E5%85%B5%E5%9C%98</t>
   </si>
   <si>
-    <t>第75游騎兵團</t>
+    <t>第75游骑兵团</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/95th_Civil_Affairs_Brigade</t>
@@ -2135,13 +2087,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%99%B8%E8%BB%8D%E7%89%B9%E7%A8%AE%E4%BD%9C%E6%88%B0%E8%88%AA%E7%A9%BA%E5%8F%B8%E4%BB%A4%E9%83%A8</t>
   </si>
   <si>
-    <t>美國陸軍特種作戰航空司令部</t>
+    <t>美国陆军特种作战航空司令部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B%E4%BF%A1%E6%81%AF%E6%94%AF%E6%8F%B4%E4%BD%9C%E6%88%B0%E5%8F%B8%E4%BB%A4%E9%83%A8</t>
   </si>
   <si>
-    <t>軍事信息支援作戰司令部</t>
+    <t>军事信息支援作战司令部</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/John_F._Kennedy_Special_Warfare_Center_and_School</t>
@@ -2159,7 +2111,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E8%B1%B9%E9%83%A8%E9%9A%8A</t>
   </si>
   <si>
-    <t>海豹部隊</t>
+    <t>海豹部队</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Special_warfare_combatant-craft_crewmen</t>
@@ -2225,7 +2177,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A9%BA%E8%BB%8D%E7%AC%AC361%E6%83%85%E5%A0%B1%E7%9B%A3%E8%A6%96%E5%81%B5%E5%AF%9F%E5%A4%A7%E9%9A%8A</t>
   </si>
   <si>
-    <t>美國空軍第361情報監視偵察大隊</t>
+    <t>美国空军第361情报监视侦察大队</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Air_Force_Special_Operations_Air_Warfare_Center</t>
@@ -2237,13 +2189,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A9%BA%E8%BB%8D%E7%89%B9%E6%AE%8A%E8%BB%8D%E4%BA%8B%E8%A1%8C%E5%8B%95%E5%AD%B8%E6%A0%A1</t>
   </si>
   <si>
-    <t>美國空軍特殊軍事行動學校</t>
+    <t>美国空军特殊军事行动学校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A9%BA%E8%BB%8D%E5%82%98%E9%99%8D%E6%95%91%E6%8F%B4%E9%9A%8A</t>
   </si>
   <si>
-    <t>美國空軍傘降救援隊</t>
+    <t>美国空军伞降救援队</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_States_Air_Force_Combat_Control_Team</t>
@@ -2273,7 +2225,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E8%A7%92%E6%B4%B2%E9%83%A8%E9%9A%8A</t>
   </si>
   <si>
-    <t>三角洲部隊</t>
+    <t>三角洲部队</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Intelligence_Support_Activity</t>
@@ -2285,7 +2237,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%B5%B7%E8%BB%8D%E7%89%B9%E7%A8%AE%E4%BD%9C%E6%88%B0%E7%A0%94%E7%A9%B6%E5%A4%A7%E9%9A%8A</t>
   </si>
   <si>
-    <t>美國海軍特種作戰研究大隊</t>
+    <t>美国海军特种作战研究大队</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/24th_Special_Tactics_Squadron</t>
@@ -2315,13 +2267,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%9F%BA%E8%90%8A%C2%B7%E5%8B%9E%E5%80%AB%E8%99%9F</t>
   </si>
   <si>
-    <t>阿基萊·勞倫號</t>
+    <t>阿基莱·劳伦号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E5%B0%BC%E4%BA%9E%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>波士尼亞戰爭</t>
+    <t>波士尼亚战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8C%81%E4%B9%85%E8%87%AA%E7%94%B1%E5%86%9B%E4%BA%8B%E8%A1%8C%E5%8A%A8</t>
@@ -2333,19 +2285,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A3%AE%E8%9A%BA%E8%A1%8C%E5%8B%95</t>
   </si>
   <si>
-    <t>森蚺行動</t>
+    <t>森蚺行动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E7%BF%BC%E8%A1%8C%E5%8B%95</t>
   </si>
   <si>
-    <t>紅翼行動</t>
+    <t>红翼行动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%AB%E6%A1%85%E9%98%BF%E6%8B%89%E5%B7%B4%E9%A6%AC%E8%99%9F%E5%8A%AB%E6%8C%81%E6%A1%88</t>
   </si>
   <si>
-    <t>快桅阿拉巴馬號劫持案</t>
+    <t>快桅阿拉巴马号劫持案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E8%90%A8%E9%A9%AC%C2%B7%E6%9C%AC%C2%B7%E6%8B%89%E7%99%BB%E4%B9%8B%E6%AD%BB</t>
@@ -2369,19 +2321,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E7%B6%93%E6%BF%9F%E5%85%B1%E5%90%8C%E9%AB%94</t>
   </si>
   <si>
-    <t>歐洲經濟共同體</t>
+    <t>欧洲经济共同体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B%E5%AE%89%E5%85%A8%E4%BF%9D%E9%9A%9C%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>太平洋安全保障條約</t>
+    <t>太平洋安全保障条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%8D%97%E4%BA%9E%E6%A2%9D%E7%B4%84%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>東南亞條約組織</t>
+    <t>东南亚条约组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E5%8D%97%E4%BA%9A%E5%9B%BD%E5%AE%B6%E8%81%94%E7%9B%9F</t>
@@ -2417,7 +2369,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E5%9C%8B%E5%AE%B6%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>阿拉伯國家聯盟</t>
+    <t>阿拉伯国家联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%89%E5%8F%96%E8%BF%9B%E6%AD%A5%E8%81%94%E7%9B%9F</t>
@@ -2429,13 +2381,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%83%A8%E5%85%AC%E7%B4%84%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>中部公約組織</t>
+    <t>中部公约组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%87%AA%E7%94%B1%E6%B0%91%E4%B8%BB%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>世界自由民主聯盟</t>
+    <t>世界自由民主联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%B0%94%E5%A1%94%E4%BC%9A%E8%AE%AE</t>
@@ -2459,7 +2411,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E7%9B%9F%E5%9C%8B%E8%BB%8D%E4%BA%8B%E4%BD%94%E9%A0%98%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>同盟國軍事佔領德國</t>
+    <t>同盟国军事佔领德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%BB%E7%BA%B3%E7%B2%B9%E5%8C%96</t>
@@ -2501,7 +2453,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8D%E5%BE%B7%E6%94%BF%E7%AD%96%E7%9A%84%E9%87%8D%E8%BF%B0</t>
   </si>
   <si>
-    <t>對德政策的重述</t>
+    <t>对德政策的重述</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E5%B0%BC%E8%A5%BF%E4%BA%9A%E7%8B%AC%E7%AB%8B%E9%9D%A9%E5%91%BD</t>
@@ -2519,7 +2471,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2%E9%97%9C%E4%BF%82%E6%9C%83%E8%AD%B0</t>
   </si>
   <si>
-    <t>亞洲關係會議</t>
+    <t>亚洲关系会议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%AD%87%E5%B0%94%E8%AE%A1%E5%88%92</t>
@@ -2549,13 +2501,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%9E%97%E5%B0%81%E9%8E%96</t>
   </si>
   <si>
-    <t>柏林封鎖</t>
+    <t>柏林封锁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%96%B9%E7%9B%9F%E5%9C%8B%E7%9A%84%E8%83%8C%E5%8F%9B</t>
   </si>
   <si>
-    <t>西方盟國的背叛</t>
+    <t>西方盟国的背叛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%93%81%E5%B9%95</t>
@@ -2567,7 +2519,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%96%B9%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>東方集團</t>
+    <t>东方集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E5%9B%BD%E5%85%B1%E5%86%85%E6%88%98</t>
@@ -2579,19 +2531,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E7%9C%81%E6%88%92%E5%9A%B4%E4%BB%A4</t>
   </si>
   <si>
-    <t>臺灣省戒嚴令</t>
+    <t>台湾省戒严令</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86%E4%BA%9E%E7%B7%8A%E6%80%A5%E7%8B%80%E6%85%8B</t>
   </si>
   <si>
-    <t>馬來亞緊急狀態</t>
+    <t>马来亚紧急状态</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E6%B4%9B%E6%89%98%E5%A4%AB%E8%A8%88%E5%8A%83</t>
   </si>
   <si>
-    <t>莫洛托夫計劃</t>
+    <t>莫洛托夫计划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%B9%E5%B9%95</t>
@@ -2603,13 +2555,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E6%A3%AE%E5%A0%A1%E5%A4%AB%E5%A9%A6</t>
   </si>
   <si>
-    <t>羅森堡夫婦</t>
+    <t>罗森堡夫妇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1953%E5%B9%B4%E4%BC%8A%E6%9C%97%E6%94%BF%E8%AE%8A</t>
   </si>
   <si>
-    <t>1953年伊朗政變</t>
+    <t>1953年伊朗政变</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E5%BE%B7%E5%85%AD%E4%B8%80%E4%B8%83%E4%BA%8B%E4%BB%B6</t>
@@ -2633,7 +2585,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E6%B5%B7%E5%B3%BD%E5%8D%B1%E6%A9%9F</t>
   </si>
   <si>
-    <t>臺灣海峽危機</t>
+    <t>台湾海峡危机</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Geneva_Summit_(1955)</t>
@@ -2645,13 +2597,10 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%8F%8A%E5%88%A9%E4%BA%9A%E6%88%98%E4%BA%89</t>
   </si>
   <si>
-    <t>阿尔及利亚战争</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%8C%B2%E5%8D%97%E4%BA%8B%E4%BB%B6</t>
   </si>
   <si>
-    <t>波茲南事件</t>
+    <t>波兹南事件</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%88%E7%89%99%E5%88%A9%E5%8D%81%E6%9C%88%E4%BA%8B%E4%BB%B6</t>
@@ -2693,7 +2642,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%AC%E9%9A%86%E6%9C%83%E8%AD%B0</t>
   </si>
   <si>
-    <t>萬隆會議</t>
+    <t>万隆会议</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Bricker_Amendment</t>
@@ -2729,7 +2678,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%97%A5%E5%AE%89%E4%BF%9D%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>美日安保條約</t>
+    <t>美日安保条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E4%B8%80%E4%B9%9D%E9%9D%A9%E5%91%BD</t>
@@ -2741,13 +2690,13 @@
     <t>https://zh.wikipedia.org/wiki/1960%E5%B9%B4U-2%E6%93%8A%E5%A2%9C%E4%BA%8B%E4%BB%B6</t>
   </si>
   <si>
-    <t>1960年U-2擊墜事件</t>
+    <t>1960年U-2击坠事件</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%96%B9%E4%B8%80%E8%99%9F</t>
   </si>
   <si>
-    <t>東方一號</t>
+    <t>东方一号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8C%AA%E6%B9%BE%E4%BA%8B%E4%BB%B6</t>
@@ -2759,13 +2708,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%9E%97%E5%9C%8D%E7%89%86</t>
   </si>
   <si>
-    <t>柏林圍牆</t>
+    <t>柏林围墙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99%E6%AE%96%E6%B0%91%E5%9C%B0%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>葡萄牙殖民地戰爭</t>
+    <t>葡萄牙殖民地战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B7%B4%E5%AF%BC%E5%BC%B9%E5%8D%B1%E6%9C%BA</t>
@@ -2777,13 +2726,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%83%A8%E5%88%86%E7%A6%81%E6%AD%A2%E6%A0%B8%E8%A9%A6%E9%A9%97%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>部分禁止核試驗條約</t>
+    <t>部分禁止核试验条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BD%94%E9%A0%98%E5%A4%9A%E6%98%8E%E5%B0%BC%E5%8A%A0%E5%85%B1%E5%92%8C%E5%9C%8B_(1965%E5%B9%B4%E8%87%B31966%E5%B9%B4)</t>
   </si>
   <si>
-    <t>美國佔領多明尼加共和國 (1965年至1966年)</t>
+    <t>美国佔领多明尼加共和国 (1965年至1966年)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1963%E5%B9%B4%E5%8D%97%E8%B6%8A%E6%94%BF%E5%8F%98</t>
@@ -2795,7 +2744,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%9D%9E%E7%A8%AE%E6%97%8F%E9%9A%94%E9%9B%A2</t>
   </si>
   <si>
-    <t>南非種族隔離</t>
+    <t>南非种族隔离</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/South_African_Border_War</t>
@@ -2819,7 +2768,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%AE%E5%9C%8B%E5%85%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>寮國內戰</t>
+    <t>寮国内战</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Argentine_Revolution</t>
@@ -2831,13 +2780,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98%E8%BB%8D%E6%94%BF%E5%BA%9C%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>希臘軍政府時期</t>
+    <t>希腊军政府时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%9F%8B%E5%B8%83%E6%B4%9B%E8%99%9F%E9%80%9A%E7%94%A8%E7%92%B0%E5%A2%83%E7%A0%94%E7%A9%B6%E8%89%A6</t>
   </si>
   <si>
-    <t>普韋布洛號通用環境研究艦</t>
+    <t>普韦布洛号通用环境研究舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E6%AC%A1%E4%B8%AD%E4%B8%9C%E6%88%98%E4%BA%89</t>
@@ -2861,7 +2810,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%96%87%E5%8C%96%E5%BE%A9%E8%88%88%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>中華文化復興運動</t>
+    <t>中华文化复兴运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%B0%E8%BE%B9%E5%A2%83%E6%88%98%E4%BA%89</t>
@@ -2921,7 +2870,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%B3%A2%E7%BE%8511%E8%99%9F</t>
   </si>
   <si>
-    <t>阿波羅11號</t>
+    <t>阿波罗11号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BC%93%E5%92%8C%E6%94%BF%E7%AD%96</t>
@@ -2951,7 +2900,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9F%AC%E5%9F%94%E5%AF%A8%E5%85%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>柬埔寨內戰</t>
+    <t>柬埔寨内战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E8%89%B2%E4%B9%9D%E6%9C%88</t>
@@ -2981,7 +2930,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%A4%A7%E6%9C%832758%E8%99%9F%E6%B1%BA%E8%AD%B0</t>
   </si>
   <si>
-    <t>聯合國大會2758號決議</t>
+    <t>联合国大会2758号决议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1972%E5%B9%B4%E5%B0%BC%E5%85%8B%E6%9D%BE%E8%AE%BF%E5%8D%8E</t>
@@ -2993,13 +2942,13 @@
     <t>https://zh.wikipedia.org/wiki/1973%E5%B9%B4%E6%99%BA%E5%88%A9%E6%94%BF%E8%AE%8A</t>
   </si>
   <si>
-    <t>1973年智利政變</t>
+    <t>1973年智利政变</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%96%E7%BD%AA%E6%97%A5%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>贖罪日戰爭</t>
+    <t>赎罪日战争</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/1973_Thai_popular_uprising</t>
@@ -3029,7 +2978,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B7%E8%A5%BF%E4%BA%9E%E5%8F%A2%E6%9E%97%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>羅德西亞叢林戰爭</t>
+    <t>罗德西亚丛林战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%93%A5%E6%8B%89%E5%86%85%E6%88%98</t>
@@ -3041,7 +2990,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E4%B8%89%E6%AF%94%E5%85%8B%E5%85%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>莫三比克內戰</t>
+    <t>莫三比克内战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%BF%E9%97%A8%E5%BA%97%E4%BA%8B%E4%BB%B6</t>
@@ -3053,19 +3002,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E5%8A%A0%E7%99%BB%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>歐加登戰爭</t>
+    <t>欧加登战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%A3%E7%B4%A2%E6%AF%94%E4%BA%9E%E5%85%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>衣索比亞內戰</t>
+    <t>衣索比亚内战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%AC%E8%B6%8A%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>柬越戰爭</t>
+    <t>柬越战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1979%E5%B9%B4%E4%B8%AD%E8%B6%8A%E6%88%98%E4%BA%89</t>
@@ -3083,13 +3032,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%80%E9%B7%B9%E8%A1%8C%E5%8B%95</t>
   </si>
   <si>
-    <t>兀鷹行動</t>
+    <t>兀鹰行动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AA%AF%E9%AB%92%E6%88%B0%E7%88%AD_(%E9%98%BF%E6%A0%B9%E5%BB%B7)</t>
   </si>
   <si>
-    <t>骯髒戰爭 (阿根廷)</t>
+    <t>肮脏战争 (阿根廷)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%8A%A0%E6%8B%89%E5%9B%BD%E8%A7%A3%E6%94%BE%E6%88%98%E4%BA%89</t>
@@ -3107,13 +3056,13 @@
     <t>https://zh.wikipedia.org/wiki/1978%E5%B9%B4%E5%8D%97%E9%BB%8E%E5%B7%B4%E5%AB%A9%E8%A1%9D%E7%AA%81</t>
   </si>
   <si>
-    <t>1978年南黎巴嫩衝突</t>
+    <t>1978年南黎巴嫩冲突</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%A5%E6%9C%9B%C2%B7%E4%BF%9D%E7%A5%BF%E4%BA%8C%E4%B8%96</t>
   </si>
   <si>
-    <t>若望·保祿二世</t>
+    <t>若望·保禄二世</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E6%8A%B5%E5%88%B61980%E5%B9%B4%E5%A4%8F%E5%AD%A3%E5%A5%A5%E8%BF%90%E4%BC%9A</t>
@@ -3125,7 +3074,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%85%8B%E8%98%AD%E7%BE%A4%E5%B3%B6%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>福克蘭群島戰爭</t>
+    <t>福克兰群岛战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%94%E6%AC%A1%E4%B8%AD%E4%B8%9C%E6%88%98%E4%BA%89</t>
@@ -3155,7 +3104,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%98%E7%B5%90%E5%B7%A5%E8%81%AF</t>
   </si>
   <si>
-    <t>團結工聯</t>
+    <t>团结工联</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Central_American_crisis</t>
@@ -3167,13 +3116,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%9F%93%E8%88%AA%E7%A9%BA007%E8%99%9F%E7%8F%AD%E6%A9%9F%E7%A9%BA%E9%9B%A3</t>
   </si>
   <si>
-    <t>大韓航空007號班機空難</t>
+    <t>大韩航空007号班机空难</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1983%E5%B9%B4%E5%84%AA%E7%A7%80%E5%B0%84%E6%89%8B%E6%BC%94%E7%BF%92</t>
   </si>
   <si>
-    <t>1983年優秀射手演習</t>
+    <t>1983年优秀射手演习</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%9F%E7%90%83%E5%A4%A7%E6%88%98%E8%AE%A1%E5%88%92</t>
@@ -3185,7 +3134,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%A9%E6%96%B0%E9%96%8B%E6%94%BE</t>
   </si>
   <si>
-    <t>革新開放</t>
+    <t>革新开放</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%B0%91%E5%8A%9B%E9%87%8F%E9%9D%A9%E5%91%BD_(1986%E5%B9%B4)</t>
@@ -3203,19 +3152,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E5%B7%B4%E5%8B%92%E6%96%AF%E5%9D%A6%E5%A4%A7%E8%B5%B7%E7%BE%A9</t>
   </si>
   <si>
-    <t>第一次巴勒斯坦大起義</t>
+    <t>第一次巴勒斯坦大起义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%97%E8%88%AA%E7%A9%BA655%E8%99%9F%E7%8F%AD%E6%A9%9F%E7%A9%BA%E9%9B%A3</t>
   </si>
   <si>
-    <t>伊朗航空655號班機空難</t>
+    <t>伊朗航空655号班机空难</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/8888%E6%B0%91%E4%B8%BB%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>8888民主運動</t>
+    <t>8888民主运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1988%E5%B9%B4%E6%99%BA%E5%88%A9%E5%85%AC%E6%8A%95</t>
@@ -3233,9 +3182,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%85%A5%E4%BE%B5%E5%B7%B4%E6%8B%BF%E9%A9%AC</t>
   </si>
   <si>
-    <t>美国入侵巴拿马</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E6%AC%A7%E5%89%A7%E5%8F%98</t>
   </si>
   <si>
@@ -3245,19 +3191,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%BE%85%E7%9A%84%E6%B5%B7%E4%B9%8B%E8%B7%AF</t>
   </si>
   <si>
-    <t>波羅的海之路</t>
+    <t>波罗的海之路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E9%B5%9D%E7%B5%A8%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>天鵝絨革命</t>
+    <t>天鹅绒革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1989%E5%B9%B4%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>1989年羅馬尼亞革命</t>
+    <t>1989年罗马尼亚革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%80%9D%E7%BB%B4_(%E8%8B%8F%E8%81%94)</t>
@@ -3275,13 +3221,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%94%BE%E6%94%BF%E7%AD%96</t>
   </si>
   <si>
-    <t>開放政策</t>
+    <t>开放政策</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E9%B5%9D%E7%B5%A8%E5%88%86%E9%9B%A2</t>
   </si>
   <si>
-    <t>天鵝絨分離</t>
+    <t>天鹅绒分离</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1990%E5%B9%B4%E8%92%99%E5%8F%A4%E6%B0%91%E4%B8%BB%E9%9D%A9%E5%91%BD</t>
@@ -3293,13 +3239,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B9%9F%E9%96%80%E7%B5%B1%E4%B8%80</t>
   </si>
   <si>
-    <t>也門統一</t>
+    <t>也门统一</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%96%AF%E6%8B%89%E5%A4%AB%E8%A7%A3%E9%AB%94</t>
   </si>
   <si>
-    <t>南斯拉夫解體</t>
+    <t>南斯拉夫解体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E8%81%94%E8%A7%A3%E4%BD%93</t>
@@ -3311,25 +3257,22 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E6%83%85%E6%8A%A5%E5%B1%80</t>
   </si>
   <si>
-    <t>中央情报局</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E8%AA%BF%E6%9F%A5%E5%B1%80</t>
   </si>
   <si>
-    <t>聯邦調查局</t>
+    <t>联邦调查局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%AE%89%E5%85%A8%E5%B1%80</t>
   </si>
   <si>
-    <t>美國國家安全局</t>
+    <t>美国国家安全局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E5%AF%86%E6%83%85%E5%A0%B1%E5%B1%80</t>
   </si>
   <si>
-    <t>秘密情報局</t>
+    <t>秘密情报局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E6%A0%BC%E5%8B%83</t>
@@ -3347,7 +3290,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%89%B2%E5%88%97%E6%83%85%E5%A0%B1%E5%8F%8A%E7%89%B9%E6%AE%8A%E4%BD%BF%E5%91%BD%E5%B1%80</t>
   </si>
   <si>
-    <t>以色列情報及特殊使命局</t>
+    <t>以色列情报及特殊使命局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%B9%E5%A4%96%E6%83%85%E6%8A%A5%E5%92%8C%E5%8F%8D%E9%97%B4%E8%B0%8D%E5%B1%80</t>
@@ -3365,13 +3308,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%B8%E8%BB%8D%E5%82%99%E7%AB%B6%E8%B3%BD</t>
   </si>
   <si>
-    <t>核軍備競賽</t>
+    <t>核军备竞赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E7%A9%BA%E7%AB%B6%E8%B3%BD</t>
   </si>
   <si>
-    <t>太空競賽</t>
+    <t>太空竞赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%B4%E5%A0%B5%E6%94%BF%E7%AD%96</t>
@@ -3389,7 +3332,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E7%B1%B3%E8%AB%BE%E9%AA%A8%E7%89%8C%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>多米諾骨牌理論</t>
+    <t>多米诺骨牌理论</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Kennedy_Doctrine</t>
@@ -3419,7 +3362,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E6%A3%AE%E4%B8%BB%E7%BE%A9_(%E5%A4%96%E4%BA%A4)</t>
   </si>
   <si>
-    <t>詹森主義 (外交)</t>
+    <t>詹森主义 (外交)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%83%E5%88%97%E6%97%A5%E6%B6%85%E5%A4%AB%E4%B8%BB%E4%B9%89</t>
@@ -3431,19 +3374,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%85%8B%E6%A3%AE%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>尼克森主義</t>
+    <t>尼克森主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%B8%83%E5%88%A9%E5%B8%8C%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>烏布利希主義</t>
+    <t>乌布利希主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%89%B9%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>卡特主義</t>
+    <t>卡特主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8C%E6%A0%B9%E4%B8%BB%E4%B9%89</t>
@@ -3497,25 +3440,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8F%A4%E5%85%B8%E7%B6%93%E6%BF%9F%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>新古典經濟學派</t>
+    <t>新古典经济学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5%E7%B6%93%E6%BF%9F%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>芝加哥經濟學派</t>
+    <t>芝加哥经济学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E6%A0%B9%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>雷根經濟學</t>
+    <t>雷根经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BE%9B%E7%B5%A6%E9%9D%A2%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>供給面學派</t>
+    <t>供给面学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%92%92%E5%88%87%E5%B0%94%E4%B8%BB%E4%B9%89</t>
@@ -3527,13 +3470,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99%E6%B0%91%E4%B8%BB%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>基督教民主主義</t>
+    <t>基督教民主主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E4%BF%9D%E5%AE%88%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>新保守主義</t>
+    <t>新保守主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E4%BA%A7%E4%B8%BB%E4%B9%89</t>
@@ -3593,7 +3536,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E9%AD%AF%E6%9B%89%E5%A4%AB%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>赫魯曉夫主義</t>
+    <t>赫鲁晓夫主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%93%81%E6%89%98%E4%B8%BB%E4%B9%89</t>
@@ -3617,7 +3560,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E7%93%A6%E6%8B%89%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>格瓦拉主義</t>
+    <t>格瓦拉主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E6%8B%89%E4%BB%80%E5%85%B1%E4%BA%A7%E4%B8%BB%E4%B9%89</t>
@@ -3647,13 +3590,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8C%AB%E5%AE%89%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>錫安主義</t>
+    <t>锡安主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E6%B0%91%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>三民主義</t>
+    <t>三民主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%85%B0%E4%B8%BB%E4%B9%89</t>
@@ -3671,7 +3614,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A7%A3%E6%94%BE%E7%A5%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>解放神學</t>
+    <t>解放神学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Active_measures</t>
@@ -3719,13 +3662,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E5%95%8F%E9%A1%8C</t>
   </si>
   <si>
-    <t>台灣問題</t>
+    <t>台湾问题</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E5%8D%8A%E5%B3%B6%E5%8D%97%E5%8C%97%E9%97%9C%E4%BF%82</t>
   </si>
   <si>
-    <t>朝鮮半島南北關係</t>
+    <t>朝鲜半岛南北关系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A2%E8%89%B2%E6%81%90%E6%85%8C</t>
@@ -3737,13 +3680,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AB%E6%97%A5%E4%B9%8B%E9%90%98</t>
   </si>
   <si>
-    <t>末日之鐘</t>
+    <t>末日之钟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A1%91%E5%9C%B0%E8%AB%BE%E6%B0%91%E6%97%8F%E8%A7%A3%E6%94%BE%E9%99%A3%E7%B7%9A</t>
   </si>
   <si>
-    <t>桑地諾民族解放陣線</t>
+    <t>桑地诺民族解放阵线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%9C%E6%88%98%E4%BA%89</t>
@@ -3755,7 +3698,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%82%8A%E7%B7%A3%E6%94%BF%E7%AD%96</t>
   </si>
   <si>
-    <t>邊緣政策</t>
+    <t>边缘政策</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/NATO%E2%80%93Russia_relations</t>
@@ -3773,13 +3716,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E8%98%87%E9%97%9C%E4%BF%82</t>
   </si>
   <si>
-    <t>美蘇關係</t>
+    <t>美苏关系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E8%98%87%E9%A6%96%E8%85%A6%E6%9C%83%E8%AD%B0%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美蘇首腦會議列表</t>
+    <t>美苏首脑会议列表</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_conflicts_related_to_the_Cold_War</t>
@@ -3791,7 +3734,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -3809,7 +3752,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -7231,7 +7174,7 @@
         <v>209</v>
       </c>
       <c r="F106" t="s">
-        <v>210</v>
+        <v>42</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -7257,10 +7200,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>210</v>
+      </c>
+      <c r="F107" t="s">
         <v>211</v>
-      </c>
-      <c r="F107" t="s">
-        <v>212</v>
       </c>
       <c r="G107" t="n">
         <v>3</v>
@@ -7286,10 +7229,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F108" t="s">
-        <v>214</v>
+        <v>20</v>
       </c>
       <c r="G108" t="n">
         <v>10</v>
@@ -7315,10 +7258,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F109" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G109" t="n">
         <v>4</v>
@@ -7344,10 +7287,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F110" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -7373,10 +7316,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F111" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -7402,10 +7345,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F112" t="s">
-        <v>222</v>
+        <v>46</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -7431,10 +7374,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F113" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G113" t="n">
         <v>2</v>
@@ -7460,10 +7403,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F114" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -7489,10 +7432,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F115" t="s">
-        <v>228</v>
+        <v>52</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -7518,10 +7461,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F116" t="s">
-        <v>230</v>
+        <v>62</v>
       </c>
       <c r="G116" t="n">
         <v>2</v>
@@ -7547,10 +7490,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F117" t="s">
-        <v>232</v>
+        <v>22</v>
       </c>
       <c r="G117" t="n">
         <v>5</v>
@@ -7576,10 +7519,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="F118" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="G118" t="n">
         <v>3</v>
@@ -7605,10 +7548,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F119" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -7634,10 +7577,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="F120" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="G120" t="n">
         <v>2</v>
@@ -7663,10 +7606,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="F121" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="G121" t="n">
         <v>2</v>
@@ -7692,10 +7635,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="F122" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -7721,10 +7664,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="F123" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="G123" t="n">
         <v>7</v>
@@ -7750,10 +7693,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F124" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G124" t="n">
         <v>9</v>
@@ -7779,10 +7722,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F125" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -7808,10 +7751,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="F126" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -7837,10 +7780,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="F127" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -7866,10 +7809,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="F128" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -7895,10 +7838,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="F129" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -7924,10 +7867,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="F130" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -7953,10 +7896,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="F131" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="G131" t="n">
         <v>4</v>
@@ -7982,10 +7925,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="F132" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -8011,10 +7954,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F133" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -8040,10 +7983,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="F134" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="G134" t="n">
         <v>6</v>
@@ -8069,10 +8012,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="F135" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="G135" t="n">
         <v>2</v>
@@ -8098,10 +8041,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="F136" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -8127,10 +8070,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="F137" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -8156,10 +8099,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="F138" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -8185,10 +8128,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="F139" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -8214,10 +8157,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="F140" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="G140" t="n">
         <v>3</v>
@@ -8243,10 +8186,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="F141" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -8272,10 +8215,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="F142" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -8301,10 +8244,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="F143" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -8330,10 +8273,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="F144" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -8359,10 +8302,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="F145" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -8388,10 +8331,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="F146" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -8417,10 +8360,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="F147" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="G147" t="n">
         <v>2</v>
@@ -8446,10 +8389,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F148" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="G148" t="n">
         <v>6</v>
@@ -8475,10 +8418,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="F149" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="G149" t="n">
         <v>2</v>
@@ -8504,10 +8447,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F150" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="G150" t="n">
         <v>2</v>
@@ -8533,10 +8476,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="F151" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="G151" t="n">
         <v>3</v>
@@ -8562,10 +8505,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="F152" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="G152" t="n">
         <v>10</v>
@@ -8591,10 +8534,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="F153" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -8620,10 +8563,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="F154" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -8649,10 +8592,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="F155" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -8678,10 +8621,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="F156" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -8707,10 +8650,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="F157" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -8736,10 +8679,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="F158" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="G158" t="n">
         <v>3</v>
@@ -8765,10 +8708,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="F159" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -8794,10 +8737,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="F160" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -8823,10 +8766,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="F161" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -8852,10 +8795,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="F162" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -8881,10 +8824,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="F163" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="G163" t="n">
         <v>7</v>
@@ -8910,10 +8853,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="F164" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="G164" t="n">
         <v>2</v>
@@ -8939,10 +8882,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="F165" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -8968,10 +8911,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="F166" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="G166" t="n">
         <v>2</v>
@@ -8997,10 +8940,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="F167" t="s">
-        <v>332</v>
+        <v>114</v>
       </c>
       <c r="G167" t="n">
         <v>3</v>
@@ -9026,10 +8969,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="F168" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="G168" t="n">
         <v>2</v>
@@ -9055,10 +8998,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="F169" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -9084,10 +9027,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="F170" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="G170" t="n">
         <v>2</v>
@@ -9113,10 +9056,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="F171" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="G171" t="n">
         <v>2</v>
@@ -9142,10 +9085,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="F172" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="G172" t="n">
         <v>23</v>
@@ -9171,10 +9114,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="F173" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="G173" t="n">
         <v>61</v>
@@ -9200,10 +9143,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="F174" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -9229,10 +9172,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="F175" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="G175" t="n">
         <v>5</v>
@@ -9258,10 +9201,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="F176" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -9287,10 +9230,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="F177" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="G177" t="n">
         <v>3</v>
@@ -9316,10 +9259,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="F178" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="G178" t="n">
         <v>8</v>
@@ -9345,10 +9288,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="F179" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -9374,10 +9317,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="F180" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="G180" t="n">
         <v>2</v>
@@ -9403,10 +9346,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="F181" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="G181" t="n">
         <v>2</v>
@@ -9432,10 +9375,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="F182" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -9461,10 +9404,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="F183" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="G183" t="n">
         <v>6</v>
@@ -9490,10 +9433,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="F184" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -9519,10 +9462,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F185" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="G185" t="n">
         <v>2</v>
@@ -9548,10 +9491,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="F186" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -9577,10 +9520,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="F187" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -9606,10 +9549,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="F188" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -9635,10 +9578,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="F189" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="G189" t="n">
         <v>2</v>
@@ -9664,10 +9607,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="F190" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -9693,10 +9636,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="F191" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -9722,10 +9665,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="F192" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -9751,10 +9694,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="F193" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -9780,10 +9723,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="F194" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -9809,10 +9752,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="F195" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="G195" t="n">
         <v>2</v>
@@ -9838,10 +9781,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="F196" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -9867,10 +9810,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="F197" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -9896,10 +9839,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="F198" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="G198" t="n">
         <v>7</v>
@@ -9925,10 +9868,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="F199" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="G199" t="n">
         <v>2</v>
@@ -9954,10 +9897,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="F200" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="G200" t="n">
         <v>3</v>
@@ -9983,10 +9926,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="F201" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -10012,10 +9955,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="F202" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -10041,10 +9984,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="F203" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -10070,10 +10013,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="F204" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -10099,10 +10042,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="F205" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -10128,10 +10071,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="F206" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -10157,10 +10100,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="F207" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -10186,10 +10129,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="F208" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -10215,10 +10158,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="F209" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -10244,10 +10187,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="F210" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -10273,10 +10216,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="F211" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -10302,10 +10245,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="F212" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="G212" t="n">
         <v>2</v>
@@ -10331,10 +10274,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="F213" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -10360,10 +10303,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="F214" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -10389,10 +10332,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="F215" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -10447,10 +10390,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="F217" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -10476,10 +10419,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="F218" t="s">
-        <v>432</v>
+        <v>12</v>
       </c>
       <c r="G218" t="n">
         <v>186</v>
@@ -10505,10 +10448,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="F219" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="G219" t="n">
         <v>2</v>
@@ -10534,10 +10477,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="F220" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -10592,10 +10535,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="F222" t="s">
-        <v>438</v>
+        <v>214</v>
       </c>
       <c r="G222" t="n">
         <v>24</v>
@@ -10621,10 +10564,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="F223" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -10679,10 +10622,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="F225" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -10708,10 +10651,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="F226" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -10737,10 +10680,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="F227" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -10766,10 +10709,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="F228" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -10795,10 +10738,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="F229" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -10824,10 +10767,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="F230" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -10882,10 +10825,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="F232" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -10911,10 +10854,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="F233" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -10940,10 +10883,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F234" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -10969,10 +10912,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="F235" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -10998,10 +10941,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="F236" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -11027,10 +10970,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="F237" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -11085,10 +11028,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="F239" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -11114,10 +11057,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F240" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -11143,10 +11086,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="F241" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -11172,10 +11115,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="F242" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -11201,10 +11144,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="F243" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -11230,10 +11173,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="F244" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -11259,10 +11202,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="F245" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -11288,10 +11231,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="F246" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -11317,10 +11260,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="F247" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -11346,10 +11289,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="F248" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -11375,10 +11318,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="F249" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -11404,10 +11347,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="F250" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -11433,10 +11376,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="F251" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -11462,10 +11405,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="F252" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -11491,10 +11434,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="F253" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -11520,10 +11463,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="F254" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -11549,10 +11492,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="F255" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="G255" t="n">
         <v>2</v>
@@ -11578,10 +11521,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="F256" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -11607,10 +11550,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="F257" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -11636,10 +11579,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="F258" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -11665,10 +11608,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="F259" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -11694,10 +11637,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="F260" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -11723,10 +11666,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="F261" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -11752,10 +11695,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="F262" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -11781,10 +11724,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="F263" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -11810,10 +11753,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="F264" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -11839,10 +11782,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="F265" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -11868,10 +11811,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="F266" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -11897,10 +11840,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="F267" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -11926,10 +11869,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="F268" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -11955,10 +11898,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="F269" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -11984,10 +11927,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="F270" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -12013,10 +11956,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="F271" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -12042,10 +11985,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="F272" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -12071,10 +12014,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="F273" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -12100,10 +12043,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="F274" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -12129,10 +12072,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="F275" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -12158,10 +12101,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="F276" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -12187,10 +12130,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="F277" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -12216,10 +12159,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="F278" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -12245,10 +12188,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="F279" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -12274,10 +12217,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="F280" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="G280" t="n">
         <v>100</v>
@@ -12303,10 +12246,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="F281" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -12332,10 +12275,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="F282" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -12361,10 +12304,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="F283" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -12390,10 +12333,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="F284" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -12419,10 +12362,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="F285" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -12448,10 +12391,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="F286" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -12477,10 +12420,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="F287" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -12506,10 +12449,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="F288" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -12535,10 +12478,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="F289" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -12564,10 +12507,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="F290" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -12593,10 +12536,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="F291" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -12622,10 +12565,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="F292" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -12651,10 +12594,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="F293" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -12680,10 +12623,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="F294" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -12709,10 +12652,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="F295" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="G295" t="n">
         <v>2</v>
@@ -12738,10 +12681,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="F296" t="s">
-        <v>578</v>
+        <v>110</v>
       </c>
       <c r="G296" t="n">
         <v>2</v>
@@ -12767,10 +12710,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
       <c r="F297" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="G297" t="n">
         <v>2</v>
@@ -12796,10 +12739,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>581</v>
+        <v>570</v>
       </c>
       <c r="F298" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -12825,10 +12768,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>583</v>
+        <v>572</v>
       </c>
       <c r="F299" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -12854,10 +12797,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="F300" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -12883,10 +12826,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
       <c r="F301" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -12912,10 +12855,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="F302" t="s">
-        <v>590</v>
+        <v>579</v>
       </c>
       <c r="G302" t="n">
         <v>2</v>
@@ -12941,10 +12884,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>591</v>
+        <v>580</v>
       </c>
       <c r="F303" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -12970,10 +12913,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>593</v>
+        <v>582</v>
       </c>
       <c r="F304" t="s">
-        <v>594</v>
+        <v>583</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -12999,10 +12942,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>595</v>
+        <v>584</v>
       </c>
       <c r="F305" t="s">
-        <v>596</v>
+        <v>585</v>
       </c>
       <c r="G305" t="n">
         <v>3</v>
@@ -13028,10 +12971,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>597</v>
+        <v>586</v>
       </c>
       <c r="F306" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
       <c r="G306" t="n">
         <v>2</v>
@@ -13057,10 +13000,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
       <c r="F307" t="s">
-        <v>600</v>
+        <v>589</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -13086,10 +13029,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
       <c r="F308" t="s">
-        <v>602</v>
+        <v>510</v>
       </c>
       <c r="G308" t="n">
         <v>4</v>
@@ -13115,10 +13058,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="F309" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -13144,10 +13087,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
       <c r="F310" t="s">
-        <v>606</v>
+        <v>594</v>
       </c>
       <c r="G310" t="n">
         <v>2</v>
@@ -13173,10 +13116,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>607</v>
+        <v>595</v>
       </c>
       <c r="F311" t="s">
-        <v>608</v>
+        <v>596</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -13202,10 +13145,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
       <c r="F312" t="s">
-        <v>610</v>
+        <v>598</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -13231,10 +13174,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>611</v>
+        <v>599</v>
       </c>
       <c r="F313" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -13260,10 +13203,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="F314" t="s">
-        <v>614</v>
+        <v>602</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -13289,10 +13232,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
       <c r="F315" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="G315" t="n">
         <v>2</v>
@@ -13318,10 +13261,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>617</v>
+        <v>605</v>
       </c>
       <c r="F316" t="s">
-        <v>618</v>
+        <v>606</v>
       </c>
       <c r="G316" t="n">
         <v>8</v>
@@ -13347,10 +13290,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>619</v>
+        <v>607</v>
       </c>
       <c r="F317" t="s">
-        <v>620</v>
+        <v>608</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -13376,10 +13319,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>621</v>
+        <v>609</v>
       </c>
       <c r="F318" t="s">
-        <v>622</v>
+        <v>610</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -13405,10 +13348,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
       <c r="F319" t="s">
-        <v>624</v>
+        <v>612</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -13434,10 +13377,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>625</v>
+        <v>613</v>
       </c>
       <c r="F320" t="s">
-        <v>626</v>
+        <v>614</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -13463,10 +13406,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>627</v>
+        <v>615</v>
       </c>
       <c r="F321" t="s">
-        <v>628</v>
+        <v>616</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -13492,10 +13435,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
       <c r="F322" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -13521,10 +13464,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>631</v>
+        <v>619</v>
       </c>
       <c r="F323" t="s">
-        <v>632</v>
+        <v>620</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -13550,10 +13493,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
       <c r="F324" t="s">
-        <v>634</v>
+        <v>622</v>
       </c>
       <c r="G324" t="n">
         <v>5</v>
@@ -13579,10 +13522,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>635</v>
+        <v>623</v>
       </c>
       <c r="F325" t="s">
-        <v>636</v>
+        <v>624</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -13608,10 +13551,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="F326" t="s">
-        <v>638</v>
+        <v>626</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -13637,10 +13580,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="F327" t="s">
-        <v>640</v>
+        <v>628</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -13666,10 +13609,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="F328" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -13695,10 +13638,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>643</v>
+        <v>631</v>
       </c>
       <c r="F329" t="s">
-        <v>644</v>
+        <v>632</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -13724,10 +13667,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>645</v>
+        <v>633</v>
       </c>
       <c r="F330" t="s">
-        <v>646</v>
+        <v>634</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -13753,10 +13696,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="F331" t="s">
-        <v>648</v>
+        <v>548</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -13782,10 +13725,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>649</v>
+        <v>636</v>
       </c>
       <c r="F332" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -13811,10 +13754,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="F333" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -13840,10 +13783,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>653</v>
+        <v>640</v>
       </c>
       <c r="F334" t="s">
-        <v>654</v>
+        <v>641</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -13869,10 +13812,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>655</v>
+        <v>642</v>
       </c>
       <c r="F335" t="s">
-        <v>656</v>
+        <v>643</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -13898,10 +13841,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>657</v>
+        <v>644</v>
       </c>
       <c r="F336" t="s">
-        <v>658</v>
+        <v>645</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -13927,10 +13870,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
       <c r="F337" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -13956,10 +13899,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>659</v>
+        <v>646</v>
       </c>
       <c r="F338" t="s">
-        <v>660</v>
+        <v>573</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -13985,10 +13928,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>661</v>
+        <v>647</v>
       </c>
       <c r="F339" t="s">
-        <v>662</v>
+        <v>648</v>
       </c>
       <c r="G339" t="n">
         <v>2</v>
@@ -14014,10 +13957,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>663</v>
+        <v>649</v>
       </c>
       <c r="F340" t="s">
-        <v>664</v>
+        <v>88</v>
       </c>
       <c r="G340" t="n">
         <v>2</v>
@@ -14043,10 +13986,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>665</v>
+        <v>650</v>
       </c>
       <c r="F341" t="s">
-        <v>666</v>
+        <v>651</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -14072,10 +14015,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>667</v>
+        <v>652</v>
       </c>
       <c r="F342" t="s">
-        <v>668</v>
+        <v>653</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -14101,10 +14044,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>669</v>
+        <v>654</v>
       </c>
       <c r="F343" t="s">
-        <v>670</v>
+        <v>655</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -14130,10 +14073,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>671</v>
+        <v>656</v>
       </c>
       <c r="F344" t="s">
-        <v>672</v>
+        <v>657</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -14159,10 +14102,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>673</v>
+        <v>658</v>
       </c>
       <c r="F345" t="s">
-        <v>674</v>
+        <v>0</v>
       </c>
       <c r="G345" t="n">
         <v>11</v>
@@ -14188,10 +14131,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>675</v>
+        <v>659</v>
       </c>
       <c r="F346" t="s">
-        <v>676</v>
+        <v>660</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -14217,10 +14160,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>677</v>
+        <v>661</v>
       </c>
       <c r="F347" t="s">
-        <v>678</v>
+        <v>662</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -14246,10 +14189,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
       <c r="F348" t="s">
-        <v>600</v>
+        <v>589</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -14275,10 +14218,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>679</v>
+        <v>663</v>
       </c>
       <c r="F349" t="s">
-        <v>680</v>
+        <v>664</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -14304,10 +14247,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>681</v>
+        <v>665</v>
       </c>
       <c r="F350" t="s">
-        <v>682</v>
+        <v>666</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -14333,10 +14276,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>683</v>
+        <v>667</v>
       </c>
       <c r="F351" t="s">
-        <v>684</v>
+        <v>668</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -14362,10 +14305,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>685</v>
+        <v>669</v>
       </c>
       <c r="F352" t="s">
-        <v>686</v>
+        <v>670</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -14391,10 +14334,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>687</v>
+        <v>671</v>
       </c>
       <c r="F353" t="s">
-        <v>688</v>
+        <v>672</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -14420,10 +14363,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>689</v>
+        <v>673</v>
       </c>
       <c r="F354" t="s">
-        <v>690</v>
+        <v>674</v>
       </c>
       <c r="G354" t="n">
         <v>2</v>
@@ -14449,10 +14392,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>691</v>
+        <v>675</v>
       </c>
       <c r="F355" t="s">
-        <v>692</v>
+        <v>676</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -14478,10 +14421,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>693</v>
+        <v>677</v>
       </c>
       <c r="F356" t="s">
-        <v>694</v>
+        <v>678</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -14507,10 +14450,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>695</v>
+        <v>679</v>
       </c>
       <c r="F357" t="s">
-        <v>696</v>
+        <v>680</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -14536,10 +14479,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>697</v>
+        <v>681</v>
       </c>
       <c r="F358" t="s">
-        <v>698</v>
+        <v>682</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -14565,10 +14508,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>699</v>
+        <v>683</v>
       </c>
       <c r="F359" t="s">
-        <v>700</v>
+        <v>684</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -14594,10 +14537,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>701</v>
+        <v>685</v>
       </c>
       <c r="F360" t="s">
-        <v>702</v>
+        <v>686</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -14623,10 +14566,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>703</v>
+        <v>687</v>
       </c>
       <c r="F361" t="s">
-        <v>704</v>
+        <v>688</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -14652,10 +14595,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>705</v>
+        <v>689</v>
       </c>
       <c r="F362" t="s">
-        <v>706</v>
+        <v>690</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -14681,10 +14624,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>707</v>
+        <v>691</v>
       </c>
       <c r="F363" t="s">
-        <v>708</v>
+        <v>692</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -14710,10 +14653,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>709</v>
+        <v>693</v>
       </c>
       <c r="F364" t="s">
-        <v>710</v>
+        <v>694</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -14739,10 +14682,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>711</v>
+        <v>695</v>
       </c>
       <c r="F365" t="s">
-        <v>712</v>
+        <v>696</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -14768,10 +14711,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>713</v>
+        <v>697</v>
       </c>
       <c r="F366" t="s">
-        <v>714</v>
+        <v>698</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -14797,10 +14740,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>715</v>
+        <v>699</v>
       </c>
       <c r="F367" t="s">
-        <v>716</v>
+        <v>700</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -14826,10 +14769,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>717</v>
+        <v>701</v>
       </c>
       <c r="F368" t="s">
-        <v>718</v>
+        <v>702</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -14855,10 +14798,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>719</v>
+        <v>703</v>
       </c>
       <c r="F369" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -14884,10 +14827,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>721</v>
+        <v>705</v>
       </c>
       <c r="F370" t="s">
-        <v>722</v>
+        <v>706</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -14913,10 +14856,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>723</v>
+        <v>707</v>
       </c>
       <c r="F371" t="s">
-        <v>724</v>
+        <v>708</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -14942,10 +14885,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="F372" t="s">
-        <v>726</v>
+        <v>710</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -14971,10 +14914,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>727</v>
+        <v>711</v>
       </c>
       <c r="F373" t="s">
-        <v>728</v>
+        <v>712</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -15000,10 +14943,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>729</v>
+        <v>713</v>
       </c>
       <c r="F374" t="s">
-        <v>730</v>
+        <v>714</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -15029,10 +14972,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>731</v>
+        <v>715</v>
       </c>
       <c r="F375" t="s">
-        <v>732</v>
+        <v>716</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -15058,10 +15001,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="F376" t="s">
-        <v>734</v>
+        <v>718</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -15087,10 +15030,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>735</v>
+        <v>719</v>
       </c>
       <c r="F377" t="s">
-        <v>736</v>
+        <v>720</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -15116,10 +15059,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>737</v>
+        <v>721</v>
       </c>
       <c r="F378" t="s">
-        <v>738</v>
+        <v>722</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -15145,10 +15088,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>739</v>
+        <v>723</v>
       </c>
       <c r="F379" t="s">
-        <v>740</v>
+        <v>724</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -15174,10 +15117,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>741</v>
+        <v>725</v>
       </c>
       <c r="F380" t="s">
-        <v>742</v>
+        <v>726</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -15203,10 +15146,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>743</v>
+        <v>727</v>
       </c>
       <c r="F381" t="s">
-        <v>744</v>
+        <v>728</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -15232,10 +15175,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>745</v>
+        <v>729</v>
       </c>
       <c r="F382" t="s">
-        <v>746</v>
+        <v>730</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -15261,10 +15204,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>747</v>
+        <v>731</v>
       </c>
       <c r="F383" t="s">
-        <v>748</v>
+        <v>732</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -15290,10 +15233,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>749</v>
+        <v>733</v>
       </c>
       <c r="F384" t="s">
-        <v>750</v>
+        <v>734</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -15319,10 +15262,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>751</v>
+        <v>735</v>
       </c>
       <c r="F385" t="s">
-        <v>752</v>
+        <v>736</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -15348,10 +15291,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>753</v>
+        <v>737</v>
       </c>
       <c r="F386" t="s">
-        <v>754</v>
+        <v>738</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -15377,10 +15320,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>755</v>
+        <v>739</v>
       </c>
       <c r="F387" t="s">
-        <v>756</v>
+        <v>740</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -15406,10 +15349,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>757</v>
+        <v>741</v>
       </c>
       <c r="F388" t="s">
-        <v>758</v>
+        <v>742</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -15435,10 +15378,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>759</v>
+        <v>743</v>
       </c>
       <c r="F389" t="s">
-        <v>760</v>
+        <v>744</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -15464,10 +15407,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>761</v>
+        <v>745</v>
       </c>
       <c r="F390" t="s">
-        <v>762</v>
+        <v>746</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -15493,10 +15436,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>763</v>
+        <v>747</v>
       </c>
       <c r="F391" t="s">
-        <v>764</v>
+        <v>748</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -15522,10 +15465,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>665</v>
+        <v>650</v>
       </c>
       <c r="F392" t="s">
-        <v>666</v>
+        <v>651</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -15551,10 +15494,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>765</v>
+        <v>749</v>
       </c>
       <c r="F393" t="s">
-        <v>766</v>
+        <v>750</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -15580,10 +15523,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>671</v>
+        <v>656</v>
       </c>
       <c r="F394" t="s">
-        <v>672</v>
+        <v>657</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -15609,10 +15552,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>675</v>
+        <v>659</v>
       </c>
       <c r="F395" t="s">
-        <v>676</v>
+        <v>660</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -15638,10 +15581,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>767</v>
+        <v>751</v>
       </c>
       <c r="F396" t="s">
-        <v>768</v>
+        <v>752</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -15667,10 +15610,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>769</v>
+        <v>753</v>
       </c>
       <c r="F397" t="s">
-        <v>770</v>
+        <v>754</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -15696,10 +15639,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>771</v>
+        <v>755</v>
       </c>
       <c r="F398" t="s">
-        <v>772</v>
+        <v>756</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -15725,10 +15668,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>773</v>
+        <v>757</v>
       </c>
       <c r="F399" t="s">
-        <v>774</v>
+        <v>758</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -15783,10 +15726,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>775</v>
+        <v>759</v>
       </c>
       <c r="F401" t="s">
-        <v>776</v>
+        <v>760</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -15812,10 +15755,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>777</v>
+        <v>761</v>
       </c>
       <c r="F402" t="s">
-        <v>778</v>
+        <v>762</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -15841,10 +15784,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>779</v>
+        <v>763</v>
       </c>
       <c r="F403" t="s">
-        <v>780</v>
+        <v>764</v>
       </c>
       <c r="G403" t="n">
         <v>1</v>
@@ -15870,10 +15813,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>781</v>
+        <v>765</v>
       </c>
       <c r="F404" t="s">
-        <v>782</v>
+        <v>766</v>
       </c>
       <c r="G404" t="n">
         <v>1</v>
@@ -15899,10 +15842,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>783</v>
+        <v>767</v>
       </c>
       <c r="F405" t="s">
-        <v>784</v>
+        <v>768</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -15928,10 +15871,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>785</v>
+        <v>769</v>
       </c>
       <c r="F406" t="s">
-        <v>786</v>
+        <v>770</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -15957,10 +15900,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>787</v>
+        <v>771</v>
       </c>
       <c r="F407" t="s">
-        <v>788</v>
+        <v>772</v>
       </c>
       <c r="G407" t="n">
         <v>1</v>
@@ -15986,10 +15929,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>789</v>
+        <v>773</v>
       </c>
       <c r="F408" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
       <c r="G408" t="n">
         <v>2</v>
@@ -16015,10 +15958,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>791</v>
+        <v>775</v>
       </c>
       <c r="F409" t="s">
-        <v>792</v>
+        <v>776</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -16044,10 +15987,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>793</v>
+        <v>777</v>
       </c>
       <c r="F410" t="s">
-        <v>794</v>
+        <v>778</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -16073,10 +16016,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>795</v>
+        <v>779</v>
       </c>
       <c r="F411" t="s">
-        <v>796</v>
+        <v>780</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -16102,10 +16045,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>797</v>
+        <v>781</v>
       </c>
       <c r="F412" t="s">
-        <v>798</v>
+        <v>782</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -16131,10 +16074,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>799</v>
+        <v>783</v>
       </c>
       <c r="F413" t="s">
-        <v>800</v>
+        <v>784</v>
       </c>
       <c r="G413" t="n">
         <v>1</v>
@@ -16160,10 +16103,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>801</v>
+        <v>785</v>
       </c>
       <c r="F414" t="s">
-        <v>802</v>
+        <v>786</v>
       </c>
       <c r="G414" t="n">
         <v>1</v>
@@ -16189,10 +16132,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>803</v>
+        <v>787</v>
       </c>
       <c r="F415" t="s">
-        <v>804</v>
+        <v>788</v>
       </c>
       <c r="G415" t="n">
         <v>1</v>
@@ -16218,10 +16161,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>805</v>
+        <v>789</v>
       </c>
       <c r="F416" t="s">
-        <v>806</v>
+        <v>790</v>
       </c>
       <c r="G416" t="n">
         <v>1</v>
@@ -16247,10 +16190,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>807</v>
+        <v>791</v>
       </c>
       <c r="F417" t="s">
-        <v>808</v>
+        <v>792</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -16276,10 +16219,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>809</v>
+        <v>793</v>
       </c>
       <c r="F418" t="s">
-        <v>810</v>
+        <v>794</v>
       </c>
       <c r="G418" t="n">
         <v>1</v>
@@ -16305,10 +16248,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>811</v>
+        <v>795</v>
       </c>
       <c r="F419" t="s">
-        <v>812</v>
+        <v>796</v>
       </c>
       <c r="G419" t="n">
         <v>1</v>
@@ -16334,10 +16277,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>813</v>
+        <v>797</v>
       </c>
       <c r="F420" t="s">
-        <v>814</v>
+        <v>798</v>
       </c>
       <c r="G420" t="n">
         <v>1</v>
@@ -16363,10 +16306,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>815</v>
+        <v>799</v>
       </c>
       <c r="F421" t="s">
-        <v>816</v>
+        <v>800</v>
       </c>
       <c r="G421" t="n">
         <v>1</v>
@@ -16392,10 +16335,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>817</v>
+        <v>801</v>
       </c>
       <c r="F422" t="s">
-        <v>818</v>
+        <v>802</v>
       </c>
       <c r="G422" t="n">
         <v>1</v>
@@ -16421,10 +16364,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>819</v>
+        <v>803</v>
       </c>
       <c r="F423" t="s">
-        <v>820</v>
+        <v>804</v>
       </c>
       <c r="G423" t="n">
         <v>1</v>
@@ -16450,10 +16393,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>821</v>
+        <v>805</v>
       </c>
       <c r="F424" t="s">
-        <v>822</v>
+        <v>806</v>
       </c>
       <c r="G424" t="n">
         <v>1</v>
@@ -16479,10 +16422,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>823</v>
+        <v>807</v>
       </c>
       <c r="F425" t="s">
-        <v>824</v>
+        <v>808</v>
       </c>
       <c r="G425" t="n">
         <v>1</v>
@@ -16508,10 +16451,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>825</v>
+        <v>809</v>
       </c>
       <c r="F426" t="s">
-        <v>826</v>
+        <v>810</v>
       </c>
       <c r="G426" t="n">
         <v>1</v>
@@ -16537,10 +16480,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>827</v>
+        <v>811</v>
       </c>
       <c r="F427" t="s">
-        <v>828</v>
+        <v>812</v>
       </c>
       <c r="G427" t="n">
         <v>1</v>
@@ -16566,10 +16509,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
       <c r="F428" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
       <c r="G428" t="n">
         <v>1</v>
@@ -16595,10 +16538,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>829</v>
+        <v>813</v>
       </c>
       <c r="F429" t="s">
-        <v>830</v>
+        <v>814</v>
       </c>
       <c r="G429" t="n">
         <v>1</v>
@@ -16624,10 +16567,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>831</v>
+        <v>815</v>
       </c>
       <c r="F430" t="s">
-        <v>832</v>
+        <v>816</v>
       </c>
       <c r="G430" t="n">
         <v>2</v>
@@ -16653,10 +16596,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>833</v>
+        <v>817</v>
       </c>
       <c r="F431" t="s">
-        <v>834</v>
+        <v>818</v>
       </c>
       <c r="G431" t="n">
         <v>1</v>
@@ -16682,10 +16625,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>835</v>
+        <v>819</v>
       </c>
       <c r="F432" t="s">
-        <v>836</v>
+        <v>820</v>
       </c>
       <c r="G432" t="n">
         <v>2</v>
@@ -16711,10 +16654,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="F433" t="s">
-        <v>838</v>
+        <v>822</v>
       </c>
       <c r="G433" t="n">
         <v>1</v>
@@ -16740,10 +16683,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>839</v>
+        <v>823</v>
       </c>
       <c r="F434" t="s">
-        <v>840</v>
+        <v>824</v>
       </c>
       <c r="G434" t="n">
         <v>1</v>
@@ -16769,10 +16712,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>841</v>
+        <v>825</v>
       </c>
       <c r="F435" t="s">
-        <v>842</v>
+        <v>826</v>
       </c>
       <c r="G435" t="n">
         <v>1</v>
@@ -16798,10 +16741,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>843</v>
+        <v>827</v>
       </c>
       <c r="F436" t="s">
-        <v>844</v>
+        <v>828</v>
       </c>
       <c r="G436" t="n">
         <v>1</v>
@@ -16827,10 +16770,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>845</v>
+        <v>829</v>
       </c>
       <c r="F437" t="s">
-        <v>846</v>
+        <v>830</v>
       </c>
       <c r="G437" t="n">
         <v>1</v>
@@ -16856,10 +16799,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>847</v>
+        <v>831</v>
       </c>
       <c r="F438" t="s">
-        <v>848</v>
+        <v>832</v>
       </c>
       <c r="G438" t="n">
         <v>2</v>
@@ -16885,10 +16828,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>849</v>
+        <v>833</v>
       </c>
       <c r="F439" t="s">
-        <v>850</v>
+        <v>834</v>
       </c>
       <c r="G439" t="n">
         <v>1</v>
@@ -16914,10 +16857,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>851</v>
+        <v>835</v>
       </c>
       <c r="F440" t="s">
-        <v>852</v>
+        <v>836</v>
       </c>
       <c r="G440" t="n">
         <v>1</v>
@@ -16943,10 +16886,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
-        <v>853</v>
+        <v>837</v>
       </c>
       <c r="F441" t="s">
-        <v>854</v>
+        <v>838</v>
       </c>
       <c r="G441" t="n">
         <v>2</v>
@@ -16972,10 +16915,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>855</v>
+        <v>839</v>
       </c>
       <c r="F442" t="s">
-        <v>856</v>
+        <v>840</v>
       </c>
       <c r="G442" t="n">
         <v>1</v>
@@ -17001,10 +16944,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>857</v>
+        <v>841</v>
       </c>
       <c r="F443" t="s">
-        <v>858</v>
+        <v>842</v>
       </c>
       <c r="G443" t="n">
         <v>1</v>
@@ -17030,10 +16973,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>859</v>
+        <v>843</v>
       </c>
       <c r="F444" t="s">
-        <v>860</v>
+        <v>844</v>
       </c>
       <c r="G444" t="n">
         <v>2</v>
@@ -17059,10 +17002,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>861</v>
+        <v>845</v>
       </c>
       <c r="F445" t="s">
-        <v>862</v>
+        <v>846</v>
       </c>
       <c r="G445" t="n">
         <v>1</v>
@@ -17088,10 +17031,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>863</v>
+        <v>847</v>
       </c>
       <c r="F446" t="s">
-        <v>864</v>
+        <v>848</v>
       </c>
       <c r="G446" t="n">
         <v>1</v>
@@ -17117,10 +17060,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>865</v>
+        <v>849</v>
       </c>
       <c r="F447" t="s">
-        <v>866</v>
+        <v>850</v>
       </c>
       <c r="G447" t="n">
         <v>1</v>
@@ -17146,10 +17089,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>867</v>
+        <v>851</v>
       </c>
       <c r="F448" t="s">
-        <v>868</v>
+        <v>852</v>
       </c>
       <c r="G448" t="n">
         <v>1</v>
@@ -17175,10 +17118,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
-        <v>869</v>
+        <v>853</v>
       </c>
       <c r="F449" t="s">
-        <v>870</v>
+        <v>854</v>
       </c>
       <c r="G449" t="n">
         <v>1</v>
@@ -17204,10 +17147,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>871</v>
+        <v>855</v>
       </c>
       <c r="F450" t="s">
-        <v>872</v>
+        <v>856</v>
       </c>
       <c r="G450" t="n">
         <v>1</v>
@@ -17233,10 +17176,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
-        <v>873</v>
+        <v>857</v>
       </c>
       <c r="F451" t="s">
-        <v>874</v>
+        <v>858</v>
       </c>
       <c r="G451" t="n">
         <v>1</v>
@@ -17262,10 +17205,10 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
-        <v>875</v>
+        <v>859</v>
       </c>
       <c r="F452" t="s">
-        <v>876</v>
+        <v>581</v>
       </c>
       <c r="G452" t="n">
         <v>1</v>
@@ -17291,10 +17234,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
-        <v>877</v>
+        <v>860</v>
       </c>
       <c r="F453" t="s">
-        <v>878</v>
+        <v>861</v>
       </c>
       <c r="G453" t="n">
         <v>1</v>
@@ -17320,10 +17263,10 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
-        <v>879</v>
+        <v>862</v>
       </c>
       <c r="F454" t="s">
-        <v>880</v>
+        <v>863</v>
       </c>
       <c r="G454" t="n">
         <v>1</v>
@@ -17349,10 +17292,10 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
-        <v>881</v>
+        <v>864</v>
       </c>
       <c r="F455" t="s">
-        <v>882</v>
+        <v>865</v>
       </c>
       <c r="G455" t="n">
         <v>1</v>
@@ -17378,10 +17321,10 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
-        <v>883</v>
+        <v>866</v>
       </c>
       <c r="F456" t="s">
-        <v>884</v>
+        <v>867</v>
       </c>
       <c r="G456" t="n">
         <v>1</v>
@@ -17407,10 +17350,10 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
-        <v>885</v>
+        <v>868</v>
       </c>
       <c r="F457" t="s">
-        <v>886</v>
+        <v>869</v>
       </c>
       <c r="G457" t="n">
         <v>1</v>
@@ -17436,10 +17379,10 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
-        <v>887</v>
+        <v>870</v>
       </c>
       <c r="F458" t="s">
-        <v>888</v>
+        <v>871</v>
       </c>
       <c r="G458" t="n">
         <v>1</v>
@@ -17465,10 +17408,10 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
-        <v>889</v>
+        <v>872</v>
       </c>
       <c r="F459" t="s">
-        <v>890</v>
+        <v>873</v>
       </c>
       <c r="G459" t="n">
         <v>1</v>
@@ -17494,10 +17437,10 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
-        <v>891</v>
+        <v>874</v>
       </c>
       <c r="F460" t="s">
-        <v>892</v>
+        <v>875</v>
       </c>
       <c r="G460" t="n">
         <v>1</v>
@@ -17523,10 +17466,10 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
-        <v>893</v>
+        <v>876</v>
       </c>
       <c r="F461" t="s">
-        <v>894</v>
+        <v>877</v>
       </c>
       <c r="G461" t="n">
         <v>1</v>
@@ -17552,10 +17495,10 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
-        <v>895</v>
+        <v>878</v>
       </c>
       <c r="F462" t="s">
-        <v>896</v>
+        <v>879</v>
       </c>
       <c r="G462" t="n">
         <v>1</v>
@@ -17581,10 +17524,10 @@
         <v>462</v>
       </c>
       <c r="E463" t="s">
-        <v>897</v>
+        <v>880</v>
       </c>
       <c r="F463" t="s">
-        <v>898</v>
+        <v>881</v>
       </c>
       <c r="G463" t="n">
         <v>1</v>
@@ -17610,10 +17553,10 @@
         <v>463</v>
       </c>
       <c r="E464" t="s">
-        <v>899</v>
+        <v>882</v>
       </c>
       <c r="F464" t="s">
-        <v>900</v>
+        <v>883</v>
       </c>
       <c r="G464" t="n">
         <v>1</v>
@@ -17639,10 +17582,10 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
-        <v>901</v>
+        <v>884</v>
       </c>
       <c r="F465" t="s">
-        <v>902</v>
+        <v>885</v>
       </c>
       <c r="G465" t="n">
         <v>1</v>
@@ -17668,10 +17611,10 @@
         <v>465</v>
       </c>
       <c r="E466" t="s">
-        <v>903</v>
+        <v>886</v>
       </c>
       <c r="F466" t="s">
-        <v>904</v>
+        <v>887</v>
       </c>
       <c r="G466" t="n">
         <v>1</v>
@@ -17697,10 +17640,10 @@
         <v>466</v>
       </c>
       <c r="E467" t="s">
-        <v>905</v>
+        <v>888</v>
       </c>
       <c r="F467" t="s">
-        <v>906</v>
+        <v>889</v>
       </c>
       <c r="G467" t="n">
         <v>1</v>
@@ -17726,10 +17669,10 @@
         <v>467</v>
       </c>
       <c r="E468" t="s">
-        <v>907</v>
+        <v>890</v>
       </c>
       <c r="F468" t="s">
-        <v>908</v>
+        <v>891</v>
       </c>
       <c r="G468" t="n">
         <v>1</v>
@@ -17755,10 +17698,10 @@
         <v>468</v>
       </c>
       <c r="E469" t="s">
-        <v>909</v>
+        <v>892</v>
       </c>
       <c r="F469" t="s">
-        <v>910</v>
+        <v>893</v>
       </c>
       <c r="G469" t="n">
         <v>1</v>
@@ -17784,10 +17727,10 @@
         <v>469</v>
       </c>
       <c r="E470" t="s">
-        <v>911</v>
+        <v>894</v>
       </c>
       <c r="F470" t="s">
-        <v>912</v>
+        <v>895</v>
       </c>
       <c r="G470" t="n">
         <v>1</v>
@@ -17813,10 +17756,10 @@
         <v>470</v>
       </c>
       <c r="E471" t="s">
-        <v>913</v>
+        <v>896</v>
       </c>
       <c r="F471" t="s">
-        <v>914</v>
+        <v>897</v>
       </c>
       <c r="G471" t="n">
         <v>1</v>
@@ -17842,10 +17785,10 @@
         <v>471</v>
       </c>
       <c r="E472" t="s">
-        <v>915</v>
+        <v>898</v>
       </c>
       <c r="F472" t="s">
-        <v>916</v>
+        <v>899</v>
       </c>
       <c r="G472" t="n">
         <v>1</v>
@@ -17871,10 +17814,10 @@
         <v>472</v>
       </c>
       <c r="E473" t="s">
-        <v>917</v>
+        <v>900</v>
       </c>
       <c r="F473" t="s">
-        <v>918</v>
+        <v>901</v>
       </c>
       <c r="G473" t="n">
         <v>1</v>
@@ -17900,10 +17843,10 @@
         <v>473</v>
       </c>
       <c r="E474" t="s">
-        <v>919</v>
+        <v>902</v>
       </c>
       <c r="F474" t="s">
-        <v>920</v>
+        <v>903</v>
       </c>
       <c r="G474" t="n">
         <v>1</v>
@@ -17929,10 +17872,10 @@
         <v>474</v>
       </c>
       <c r="E475" t="s">
-        <v>921</v>
+        <v>904</v>
       </c>
       <c r="F475" t="s">
-        <v>922</v>
+        <v>905</v>
       </c>
       <c r="G475" t="n">
         <v>1</v>
@@ -17958,10 +17901,10 @@
         <v>475</v>
       </c>
       <c r="E476" t="s">
-        <v>923</v>
+        <v>906</v>
       </c>
       <c r="F476" t="s">
-        <v>924</v>
+        <v>907</v>
       </c>
       <c r="G476" t="n">
         <v>1</v>
@@ -17987,10 +17930,10 @@
         <v>476</v>
       </c>
       <c r="E477" t="s">
-        <v>925</v>
+        <v>908</v>
       </c>
       <c r="F477" t="s">
-        <v>926</v>
+        <v>909</v>
       </c>
       <c r="G477" t="n">
         <v>1</v>
@@ -18016,10 +17959,10 @@
         <v>477</v>
       </c>
       <c r="E478" t="s">
-        <v>927</v>
+        <v>910</v>
       </c>
       <c r="F478" t="s">
-        <v>928</v>
+        <v>911</v>
       </c>
       <c r="G478" t="n">
         <v>1</v>
@@ -18045,10 +17988,10 @@
         <v>478</v>
       </c>
       <c r="E479" t="s">
-        <v>929</v>
+        <v>912</v>
       </c>
       <c r="F479" t="s">
-        <v>930</v>
+        <v>913</v>
       </c>
       <c r="G479" t="n">
         <v>1</v>
@@ -18074,10 +18017,10 @@
         <v>479</v>
       </c>
       <c r="E480" t="s">
-        <v>931</v>
+        <v>914</v>
       </c>
       <c r="F480" t="s">
-        <v>932</v>
+        <v>915</v>
       </c>
       <c r="G480" t="n">
         <v>1</v>
@@ -18103,10 +18046,10 @@
         <v>480</v>
       </c>
       <c r="E481" t="s">
-        <v>933</v>
+        <v>916</v>
       </c>
       <c r="F481" t="s">
-        <v>934</v>
+        <v>917</v>
       </c>
       <c r="G481" t="n">
         <v>1</v>
@@ -18132,10 +18075,10 @@
         <v>481</v>
       </c>
       <c r="E482" t="s">
-        <v>935</v>
+        <v>918</v>
       </c>
       <c r="F482" t="s">
-        <v>936</v>
+        <v>919</v>
       </c>
       <c r="G482" t="n">
         <v>1</v>
@@ -18161,10 +18104,10 @@
         <v>482</v>
       </c>
       <c r="E483" t="s">
-        <v>937</v>
+        <v>920</v>
       </c>
       <c r="F483" t="s">
-        <v>938</v>
+        <v>921</v>
       </c>
       <c r="G483" t="n">
         <v>1</v>
@@ -18190,10 +18133,10 @@
         <v>483</v>
       </c>
       <c r="E484" t="s">
-        <v>939</v>
+        <v>922</v>
       </c>
       <c r="F484" t="s">
-        <v>940</v>
+        <v>923</v>
       </c>
       <c r="G484" t="n">
         <v>1</v>
@@ -18219,10 +18162,10 @@
         <v>484</v>
       </c>
       <c r="E485" t="s">
-        <v>941</v>
+        <v>924</v>
       </c>
       <c r="F485" t="s">
-        <v>942</v>
+        <v>925</v>
       </c>
       <c r="G485" t="n">
         <v>1</v>
@@ -18248,10 +18191,10 @@
         <v>485</v>
       </c>
       <c r="E486" t="s">
-        <v>943</v>
+        <v>926</v>
       </c>
       <c r="F486" t="s">
-        <v>944</v>
+        <v>927</v>
       </c>
       <c r="G486" t="n">
         <v>1</v>
@@ -18277,10 +18220,10 @@
         <v>486</v>
       </c>
       <c r="E487" t="s">
-        <v>945</v>
+        <v>928</v>
       </c>
       <c r="F487" t="s">
-        <v>946</v>
+        <v>929</v>
       </c>
       <c r="G487" t="n">
         <v>1</v>
@@ -18306,10 +18249,10 @@
         <v>487</v>
       </c>
       <c r="E488" t="s">
-        <v>947</v>
+        <v>930</v>
       </c>
       <c r="F488" t="s">
-        <v>948</v>
+        <v>931</v>
       </c>
       <c r="G488" t="n">
         <v>1</v>
@@ -18335,10 +18278,10 @@
         <v>488</v>
       </c>
       <c r="E489" t="s">
-        <v>949</v>
+        <v>932</v>
       </c>
       <c r="F489" t="s">
-        <v>950</v>
+        <v>933</v>
       </c>
       <c r="G489" t="n">
         <v>1</v>
@@ -18364,10 +18307,10 @@
         <v>489</v>
       </c>
       <c r="E490" t="s">
-        <v>951</v>
+        <v>934</v>
       </c>
       <c r="F490" t="s">
-        <v>952</v>
+        <v>935</v>
       </c>
       <c r="G490" t="n">
         <v>1</v>
@@ -18393,10 +18336,10 @@
         <v>490</v>
       </c>
       <c r="E491" t="s">
-        <v>953</v>
+        <v>936</v>
       </c>
       <c r="F491" t="s">
-        <v>954</v>
+        <v>937</v>
       </c>
       <c r="G491" t="n">
         <v>1</v>
@@ -18422,10 +18365,10 @@
         <v>491</v>
       </c>
       <c r="E492" t="s">
-        <v>955</v>
+        <v>938</v>
       </c>
       <c r="F492" t="s">
-        <v>956</v>
+        <v>939</v>
       </c>
       <c r="G492" t="n">
         <v>1</v>
@@ -18451,10 +18394,10 @@
         <v>492</v>
       </c>
       <c r="E493" t="s">
-        <v>957</v>
+        <v>940</v>
       </c>
       <c r="F493" t="s">
-        <v>958</v>
+        <v>941</v>
       </c>
       <c r="G493" t="n">
         <v>1</v>
@@ -18480,10 +18423,10 @@
         <v>493</v>
       </c>
       <c r="E494" t="s">
-        <v>959</v>
+        <v>942</v>
       </c>
       <c r="F494" t="s">
-        <v>960</v>
+        <v>943</v>
       </c>
       <c r="G494" t="n">
         <v>1</v>
@@ -18509,10 +18452,10 @@
         <v>494</v>
       </c>
       <c r="E495" t="s">
-        <v>961</v>
+        <v>944</v>
       </c>
       <c r="F495" t="s">
-        <v>962</v>
+        <v>945</v>
       </c>
       <c r="G495" t="n">
         <v>1</v>
@@ -18538,10 +18481,10 @@
         <v>495</v>
       </c>
       <c r="E496" t="s">
-        <v>963</v>
+        <v>946</v>
       </c>
       <c r="F496" t="s">
-        <v>964</v>
+        <v>947</v>
       </c>
       <c r="G496" t="n">
         <v>1</v>
@@ -18567,10 +18510,10 @@
         <v>496</v>
       </c>
       <c r="E497" t="s">
-        <v>965</v>
+        <v>948</v>
       </c>
       <c r="F497" t="s">
-        <v>966</v>
+        <v>949</v>
       </c>
       <c r="G497" t="n">
         <v>1</v>
@@ -18596,10 +18539,10 @@
         <v>497</v>
       </c>
       <c r="E498" t="s">
-        <v>967</v>
+        <v>950</v>
       </c>
       <c r="F498" t="s">
-        <v>968</v>
+        <v>951</v>
       </c>
       <c r="G498" t="n">
         <v>1</v>
@@ -18625,10 +18568,10 @@
         <v>498</v>
       </c>
       <c r="E499" t="s">
-        <v>969</v>
+        <v>952</v>
       </c>
       <c r="F499" t="s">
-        <v>970</v>
+        <v>953</v>
       </c>
       <c r="G499" t="n">
         <v>1</v>
@@ -18654,10 +18597,10 @@
         <v>499</v>
       </c>
       <c r="E500" t="s">
-        <v>971</v>
+        <v>954</v>
       </c>
       <c r="F500" t="s">
-        <v>972</v>
+        <v>955</v>
       </c>
       <c r="G500" t="n">
         <v>1</v>
@@ -18683,10 +18626,10 @@
         <v>500</v>
       </c>
       <c r="E501" t="s">
-        <v>973</v>
+        <v>956</v>
       </c>
       <c r="F501" t="s">
-        <v>974</v>
+        <v>957</v>
       </c>
       <c r="G501" t="n">
         <v>1</v>
@@ -18712,10 +18655,10 @@
         <v>501</v>
       </c>
       <c r="E502" t="s">
-        <v>975</v>
+        <v>958</v>
       </c>
       <c r="F502" t="s">
-        <v>976</v>
+        <v>959</v>
       </c>
       <c r="G502" t="n">
         <v>1</v>
@@ -18741,10 +18684,10 @@
         <v>502</v>
       </c>
       <c r="E503" t="s">
-        <v>977</v>
+        <v>960</v>
       </c>
       <c r="F503" t="s">
-        <v>978</v>
+        <v>961</v>
       </c>
       <c r="G503" t="n">
         <v>1</v>
@@ -18770,10 +18713,10 @@
         <v>503</v>
       </c>
       <c r="E504" t="s">
-        <v>979</v>
+        <v>962</v>
       </c>
       <c r="F504" t="s">
-        <v>980</v>
+        <v>963</v>
       </c>
       <c r="G504" t="n">
         <v>1</v>
@@ -18799,10 +18742,10 @@
         <v>504</v>
       </c>
       <c r="E505" t="s">
-        <v>981</v>
+        <v>964</v>
       </c>
       <c r="F505" t="s">
-        <v>982</v>
+        <v>965</v>
       </c>
       <c r="G505" t="n">
         <v>1</v>
@@ -18828,10 +18771,10 @@
         <v>505</v>
       </c>
       <c r="E506" t="s">
-        <v>983</v>
+        <v>966</v>
       </c>
       <c r="F506" t="s">
-        <v>984</v>
+        <v>967</v>
       </c>
       <c r="G506" t="n">
         <v>1</v>
@@ -18857,10 +18800,10 @@
         <v>506</v>
       </c>
       <c r="E507" t="s">
-        <v>985</v>
+        <v>968</v>
       </c>
       <c r="F507" t="s">
-        <v>986</v>
+        <v>969</v>
       </c>
       <c r="G507" t="n">
         <v>1</v>
@@ -18886,10 +18829,10 @@
         <v>507</v>
       </c>
       <c r="E508" t="s">
-        <v>987</v>
+        <v>970</v>
       </c>
       <c r="F508" t="s">
-        <v>988</v>
+        <v>971</v>
       </c>
       <c r="G508" t="n">
         <v>1</v>
@@ -18915,10 +18858,10 @@
         <v>508</v>
       </c>
       <c r="E509" t="s">
-        <v>989</v>
+        <v>972</v>
       </c>
       <c r="F509" t="s">
-        <v>990</v>
+        <v>973</v>
       </c>
       <c r="G509" t="n">
         <v>1</v>
@@ -18944,10 +18887,10 @@
         <v>509</v>
       </c>
       <c r="E510" t="s">
-        <v>991</v>
+        <v>974</v>
       </c>
       <c r="F510" t="s">
-        <v>992</v>
+        <v>975</v>
       </c>
       <c r="G510" t="n">
         <v>1</v>
@@ -18973,10 +18916,10 @@
         <v>510</v>
       </c>
       <c r="E511" t="s">
-        <v>993</v>
+        <v>976</v>
       </c>
       <c r="F511" t="s">
-        <v>994</v>
+        <v>977</v>
       </c>
       <c r="G511" t="n">
         <v>1</v>
@@ -19002,10 +18945,10 @@
         <v>511</v>
       </c>
       <c r="E512" t="s">
-        <v>995</v>
+        <v>978</v>
       </c>
       <c r="F512" t="s">
-        <v>996</v>
+        <v>979</v>
       </c>
       <c r="G512" t="n">
         <v>1</v>
@@ -19031,10 +18974,10 @@
         <v>512</v>
       </c>
       <c r="E513" t="s">
-        <v>997</v>
+        <v>980</v>
       </c>
       <c r="F513" t="s">
-        <v>998</v>
+        <v>981</v>
       </c>
       <c r="G513" t="n">
         <v>1</v>
@@ -19060,10 +19003,10 @@
         <v>513</v>
       </c>
       <c r="E514" t="s">
-        <v>999</v>
+        <v>982</v>
       </c>
       <c r="F514" t="s">
-        <v>1000</v>
+        <v>983</v>
       </c>
       <c r="G514" t="n">
         <v>1</v>
@@ -19089,10 +19032,10 @@
         <v>514</v>
       </c>
       <c r="E515" t="s">
-        <v>1001</v>
+        <v>984</v>
       </c>
       <c r="F515" t="s">
-        <v>1002</v>
+        <v>985</v>
       </c>
       <c r="G515" t="n">
         <v>1</v>
@@ -19118,10 +19061,10 @@
         <v>515</v>
       </c>
       <c r="E516" t="s">
-        <v>965</v>
+        <v>948</v>
       </c>
       <c r="F516" t="s">
-        <v>966</v>
+        <v>949</v>
       </c>
       <c r="G516" t="n">
         <v>1</v>
@@ -19147,10 +19090,10 @@
         <v>516</v>
       </c>
       <c r="E517" t="s">
-        <v>1003</v>
+        <v>986</v>
       </c>
       <c r="F517" t="s">
-        <v>1004</v>
+        <v>987</v>
       </c>
       <c r="G517" t="n">
         <v>1</v>
@@ -19176,10 +19119,10 @@
         <v>517</v>
       </c>
       <c r="E518" t="s">
-        <v>1005</v>
+        <v>988</v>
       </c>
       <c r="F518" t="s">
-        <v>1006</v>
+        <v>989</v>
       </c>
       <c r="G518" t="n">
         <v>1</v>
@@ -19205,10 +19148,10 @@
         <v>518</v>
       </c>
       <c r="E519" t="s">
-        <v>1007</v>
+        <v>990</v>
       </c>
       <c r="F519" t="s">
-        <v>1008</v>
+        <v>991</v>
       </c>
       <c r="G519" t="n">
         <v>1</v>
@@ -19234,10 +19177,10 @@
         <v>519</v>
       </c>
       <c r="E520" t="s">
-        <v>1009</v>
+        <v>992</v>
       </c>
       <c r="F520" t="s">
-        <v>1010</v>
+        <v>993</v>
       </c>
       <c r="G520" t="n">
         <v>1</v>
@@ -19263,10 +19206,10 @@
         <v>520</v>
       </c>
       <c r="E521" t="s">
-        <v>1011</v>
+        <v>994</v>
       </c>
       <c r="F521" t="s">
-        <v>1012</v>
+        <v>995</v>
       </c>
       <c r="G521" t="n">
         <v>1</v>
@@ -19292,10 +19235,10 @@
         <v>521</v>
       </c>
       <c r="E522" t="s">
-        <v>1013</v>
+        <v>996</v>
       </c>
       <c r="F522" t="s">
-        <v>1014</v>
+        <v>997</v>
       </c>
       <c r="G522" t="n">
         <v>1</v>
@@ -19321,10 +19264,10 @@
         <v>522</v>
       </c>
       <c r="E523" t="s">
-        <v>1015</v>
+        <v>998</v>
       </c>
       <c r="F523" t="s">
-        <v>1016</v>
+        <v>999</v>
       </c>
       <c r="G523" t="n">
         <v>1</v>
@@ -19350,10 +19293,10 @@
         <v>523</v>
       </c>
       <c r="E524" t="s">
-        <v>1017</v>
+        <v>1000</v>
       </c>
       <c r="F524" t="s">
-        <v>1018</v>
+        <v>1001</v>
       </c>
       <c r="G524" t="n">
         <v>1</v>
@@ -19379,10 +19322,10 @@
         <v>524</v>
       </c>
       <c r="E525" t="s">
-        <v>1019</v>
+        <v>1002</v>
       </c>
       <c r="F525" t="s">
-        <v>1020</v>
+        <v>1003</v>
       </c>
       <c r="G525" t="n">
         <v>1</v>
@@ -19408,10 +19351,10 @@
         <v>525</v>
       </c>
       <c r="E526" t="s">
-        <v>1021</v>
+        <v>1004</v>
       </c>
       <c r="F526" t="s">
-        <v>1022</v>
+        <v>1005</v>
       </c>
       <c r="G526" t="n">
         <v>1</v>
@@ -19437,10 +19380,10 @@
         <v>526</v>
       </c>
       <c r="E527" t="s">
-        <v>1023</v>
+        <v>1006</v>
       </c>
       <c r="F527" t="s">
-        <v>1024</v>
+        <v>1007</v>
       </c>
       <c r="G527" t="n">
         <v>1</v>
@@ -19466,10 +19409,10 @@
         <v>527</v>
       </c>
       <c r="E528" t="s">
-        <v>1025</v>
+        <v>1008</v>
       </c>
       <c r="F528" t="s">
-        <v>1026</v>
+        <v>1009</v>
       </c>
       <c r="G528" t="n">
         <v>1</v>
@@ -19495,10 +19438,10 @@
         <v>528</v>
       </c>
       <c r="E529" t="s">
-        <v>1027</v>
+        <v>1010</v>
       </c>
       <c r="F529" t="s">
-        <v>1028</v>
+        <v>1011</v>
       </c>
       <c r="G529" t="n">
         <v>1</v>
@@ -19524,10 +19467,10 @@
         <v>529</v>
       </c>
       <c r="E530" t="s">
-        <v>1029</v>
+        <v>1012</v>
       </c>
       <c r="F530" t="s">
-        <v>1030</v>
+        <v>1013</v>
       </c>
       <c r="G530" t="n">
         <v>1</v>
@@ -19553,10 +19496,10 @@
         <v>530</v>
       </c>
       <c r="E531" t="s">
-        <v>1031</v>
+        <v>1014</v>
       </c>
       <c r="F531" t="s">
-        <v>1032</v>
+        <v>1015</v>
       </c>
       <c r="G531" t="n">
         <v>1</v>
@@ -19582,10 +19525,10 @@
         <v>531</v>
       </c>
       <c r="E532" t="s">
-        <v>1033</v>
+        <v>1016</v>
       </c>
       <c r="F532" t="s">
-        <v>1034</v>
+        <v>1017</v>
       </c>
       <c r="G532" t="n">
         <v>1</v>
@@ -19611,10 +19554,10 @@
         <v>532</v>
       </c>
       <c r="E533" t="s">
-        <v>1035</v>
+        <v>1018</v>
       </c>
       <c r="F533" t="s">
-        <v>1036</v>
+        <v>1019</v>
       </c>
       <c r="G533" t="n">
         <v>1</v>
@@ -19640,10 +19583,10 @@
         <v>533</v>
       </c>
       <c r="E534" t="s">
-        <v>1037</v>
+        <v>1020</v>
       </c>
       <c r="F534" t="s">
-        <v>1038</v>
+        <v>1021</v>
       </c>
       <c r="G534" t="n">
         <v>1</v>
@@ -19669,10 +19612,10 @@
         <v>534</v>
       </c>
       <c r="E535" t="s">
-        <v>1039</v>
+        <v>1022</v>
       </c>
       <c r="F535" t="s">
-        <v>1040</v>
+        <v>1023</v>
       </c>
       <c r="G535" t="n">
         <v>1</v>
@@ -19698,10 +19641,10 @@
         <v>535</v>
       </c>
       <c r="E536" t="s">
-        <v>1041</v>
+        <v>1024</v>
       </c>
       <c r="F536" t="s">
-        <v>1042</v>
+        <v>1025</v>
       </c>
       <c r="G536" t="n">
         <v>1</v>
@@ -19727,10 +19670,10 @@
         <v>536</v>
       </c>
       <c r="E537" t="s">
-        <v>1043</v>
+        <v>1026</v>
       </c>
       <c r="F537" t="s">
-        <v>1044</v>
+        <v>1027</v>
       </c>
       <c r="G537" t="n">
         <v>1</v>
@@ -19756,10 +19699,10 @@
         <v>537</v>
       </c>
       <c r="E538" t="s">
-        <v>1045</v>
+        <v>1028</v>
       </c>
       <c r="F538" t="s">
-        <v>1046</v>
+        <v>1029</v>
       </c>
       <c r="G538" t="n">
         <v>1</v>
@@ -19785,10 +19728,10 @@
         <v>538</v>
       </c>
       <c r="E539" t="s">
-        <v>1047</v>
+        <v>1030</v>
       </c>
       <c r="F539" t="s">
-        <v>1048</v>
+        <v>1031</v>
       </c>
       <c r="G539" t="n">
         <v>1</v>
@@ -19814,10 +19757,10 @@
         <v>539</v>
       </c>
       <c r="E540" t="s">
-        <v>1049</v>
+        <v>1032</v>
       </c>
       <c r="F540" t="s">
-        <v>1050</v>
+        <v>1033</v>
       </c>
       <c r="G540" t="n">
         <v>1</v>
@@ -19843,10 +19786,10 @@
         <v>540</v>
       </c>
       <c r="E541" t="s">
-        <v>1051</v>
+        <v>1034</v>
       </c>
       <c r="F541" t="s">
-        <v>1052</v>
+        <v>1035</v>
       </c>
       <c r="G541" t="n">
         <v>1</v>
@@ -19872,10 +19815,10 @@
         <v>541</v>
       </c>
       <c r="E542" t="s">
-        <v>1053</v>
+        <v>1036</v>
       </c>
       <c r="F542" t="s">
-        <v>1054</v>
+        <v>1037</v>
       </c>
       <c r="G542" t="n">
         <v>1</v>
@@ -19901,10 +19844,10 @@
         <v>542</v>
       </c>
       <c r="E543" t="s">
-        <v>665</v>
+        <v>650</v>
       </c>
       <c r="F543" t="s">
-        <v>666</v>
+        <v>651</v>
       </c>
       <c r="G543" t="n">
         <v>1</v>
@@ -19930,10 +19873,10 @@
         <v>543</v>
       </c>
       <c r="E544" t="s">
-        <v>1055</v>
+        <v>1038</v>
       </c>
       <c r="F544" t="s">
-        <v>1056</v>
+        <v>1039</v>
       </c>
       <c r="G544" t="n">
         <v>1</v>
@@ -19959,10 +19902,10 @@
         <v>544</v>
       </c>
       <c r="E545" t="s">
-        <v>1057</v>
+        <v>1040</v>
       </c>
       <c r="F545" t="s">
-        <v>1058</v>
+        <v>1041</v>
       </c>
       <c r="G545" t="n">
         <v>1</v>
@@ -19988,10 +19931,10 @@
         <v>545</v>
       </c>
       <c r="E546" t="s">
-        <v>1059</v>
+        <v>1042</v>
       </c>
       <c r="F546" t="s">
-        <v>1060</v>
+        <v>1043</v>
       </c>
       <c r="G546" t="n">
         <v>1</v>
@@ -20017,10 +19960,10 @@
         <v>546</v>
       </c>
       <c r="E547" t="s">
-        <v>853</v>
+        <v>837</v>
       </c>
       <c r="F547" t="s">
-        <v>854</v>
+        <v>838</v>
       </c>
       <c r="G547" t="n">
         <v>1</v>
@@ -20046,10 +19989,10 @@
         <v>547</v>
       </c>
       <c r="E548" t="s">
-        <v>1061</v>
+        <v>1044</v>
       </c>
       <c r="F548" t="s">
-        <v>1062</v>
+        <v>1045</v>
       </c>
       <c r="G548" t="n">
         <v>1</v>
@@ -20075,10 +20018,10 @@
         <v>548</v>
       </c>
       <c r="E549" t="s">
-        <v>1063</v>
+        <v>1046</v>
       </c>
       <c r="F549" t="s">
-        <v>1064</v>
+        <v>1047</v>
       </c>
       <c r="G549" t="n">
         <v>1</v>
@@ -20104,10 +20047,10 @@
         <v>549</v>
       </c>
       <c r="E550" t="s">
-        <v>1065</v>
+        <v>1048</v>
       </c>
       <c r="F550" t="s">
-        <v>1066</v>
+        <v>1049</v>
       </c>
       <c r="G550" t="n">
         <v>1</v>
@@ -20133,10 +20076,10 @@
         <v>550</v>
       </c>
       <c r="E551" t="s">
-        <v>1067</v>
+        <v>1050</v>
       </c>
       <c r="F551" t="s">
-        <v>1068</v>
+        <v>1051</v>
       </c>
       <c r="G551" t="n">
         <v>1</v>
@@ -20162,10 +20105,10 @@
         <v>551</v>
       </c>
       <c r="E552" t="s">
-        <v>1069</v>
+        <v>1052</v>
       </c>
       <c r="F552" t="s">
-        <v>1070</v>
+        <v>1053</v>
       </c>
       <c r="G552" t="n">
         <v>1</v>
@@ -20191,10 +20134,10 @@
         <v>552</v>
       </c>
       <c r="E553" t="s">
-        <v>1071</v>
+        <v>1054</v>
       </c>
       <c r="F553" t="s">
-        <v>1072</v>
+        <v>657</v>
       </c>
       <c r="G553" t="n">
         <v>1</v>
@@ -20220,10 +20163,10 @@
         <v>553</v>
       </c>
       <c r="E554" t="s">
-        <v>1073</v>
+        <v>1055</v>
       </c>
       <c r="F554" t="s">
-        <v>1074</v>
+        <v>1056</v>
       </c>
       <c r="G554" t="n">
         <v>1</v>
@@ -20249,10 +20192,10 @@
         <v>554</v>
       </c>
       <c r="E555" t="s">
-        <v>1075</v>
+        <v>1057</v>
       </c>
       <c r="F555" t="s">
-        <v>1076</v>
+        <v>1058</v>
       </c>
       <c r="G555" t="n">
         <v>1</v>
@@ -20278,10 +20221,10 @@
         <v>555</v>
       </c>
       <c r="E556" t="s">
-        <v>1077</v>
+        <v>1059</v>
       </c>
       <c r="F556" t="s">
-        <v>1078</v>
+        <v>1060</v>
       </c>
       <c r="G556" t="n">
         <v>1</v>
@@ -20307,10 +20250,10 @@
         <v>556</v>
       </c>
       <c r="E557" t="s">
-        <v>1079</v>
+        <v>1061</v>
       </c>
       <c r="F557" t="s">
-        <v>1080</v>
+        <v>1062</v>
       </c>
       <c r="G557" t="n">
         <v>1</v>
@@ -20336,10 +20279,10 @@
         <v>557</v>
       </c>
       <c r="E558" t="s">
-        <v>1081</v>
+        <v>1063</v>
       </c>
       <c r="F558" t="s">
-        <v>1082</v>
+        <v>1064</v>
       </c>
       <c r="G558" t="n">
         <v>1</v>
@@ -20365,10 +20308,10 @@
         <v>558</v>
       </c>
       <c r="E559" t="s">
-        <v>1083</v>
+        <v>1065</v>
       </c>
       <c r="F559" t="s">
-        <v>1084</v>
+        <v>1066</v>
       </c>
       <c r="G559" t="n">
         <v>1</v>
@@ -20394,10 +20337,10 @@
         <v>559</v>
       </c>
       <c r="E560" t="s">
-        <v>1085</v>
+        <v>1067</v>
       </c>
       <c r="F560" t="s">
-        <v>1086</v>
+        <v>1068</v>
       </c>
       <c r="G560" t="n">
         <v>1</v>
@@ -20423,10 +20366,10 @@
         <v>560</v>
       </c>
       <c r="E561" t="s">
-        <v>1087</v>
+        <v>1069</v>
       </c>
       <c r="F561" t="s">
-        <v>1088</v>
+        <v>1070</v>
       </c>
       <c r="G561" t="n">
         <v>1</v>
@@ -20452,10 +20395,10 @@
         <v>561</v>
       </c>
       <c r="E562" t="s">
-        <v>1089</v>
+        <v>1071</v>
       </c>
       <c r="F562" t="s">
-        <v>1090</v>
+        <v>1072</v>
       </c>
       <c r="G562" t="n">
         <v>1</v>
@@ -20481,10 +20424,10 @@
         <v>562</v>
       </c>
       <c r="E563" t="s">
-        <v>1091</v>
+        <v>1073</v>
       </c>
       <c r="F563" t="s">
-        <v>1092</v>
+        <v>1074</v>
       </c>
       <c r="G563" t="n">
         <v>1</v>
@@ -20510,10 +20453,10 @@
         <v>563</v>
       </c>
       <c r="E564" t="s">
-        <v>1093</v>
+        <v>1075</v>
       </c>
       <c r="F564" t="s">
-        <v>1094</v>
+        <v>1076</v>
       </c>
       <c r="G564" t="n">
         <v>1</v>
@@ -20539,10 +20482,10 @@
         <v>564</v>
       </c>
       <c r="E565" t="s">
-        <v>1095</v>
+        <v>1077</v>
       </c>
       <c r="F565" t="s">
-        <v>1096</v>
+        <v>1078</v>
       </c>
       <c r="G565" t="n">
         <v>1</v>
@@ -20568,10 +20511,10 @@
         <v>565</v>
       </c>
       <c r="E566" t="s">
-        <v>1097</v>
+        <v>1079</v>
       </c>
       <c r="F566" t="s">
-        <v>1098</v>
+        <v>158</v>
       </c>
       <c r="G566" t="n">
         <v>2</v>
@@ -20597,10 +20540,10 @@
         <v>566</v>
       </c>
       <c r="E567" t="s">
-        <v>1099</v>
+        <v>1080</v>
       </c>
       <c r="F567" t="s">
-        <v>1100</v>
+        <v>1081</v>
       </c>
       <c r="G567" t="n">
         <v>1</v>
@@ -20626,10 +20569,10 @@
         <v>567</v>
       </c>
       <c r="E568" t="s">
-        <v>1101</v>
+        <v>1082</v>
       </c>
       <c r="F568" t="s">
-        <v>1102</v>
+        <v>1083</v>
       </c>
       <c r="G568" t="n">
         <v>1</v>
@@ -20655,10 +20598,10 @@
         <v>568</v>
       </c>
       <c r="E569" t="s">
-        <v>1103</v>
+        <v>1084</v>
       </c>
       <c r="F569" t="s">
-        <v>1104</v>
+        <v>1085</v>
       </c>
       <c r="G569" t="n">
         <v>1</v>
@@ -20684,10 +20627,10 @@
         <v>569</v>
       </c>
       <c r="E570" t="s">
-        <v>1105</v>
+        <v>1086</v>
       </c>
       <c r="F570" t="s">
-        <v>1106</v>
+        <v>1087</v>
       </c>
       <c r="G570" t="n">
         <v>1</v>
@@ -20713,10 +20656,10 @@
         <v>570</v>
       </c>
       <c r="E571" t="s">
-        <v>1107</v>
+        <v>1088</v>
       </c>
       <c r="F571" t="s">
-        <v>1108</v>
+        <v>1089</v>
       </c>
       <c r="G571" t="n">
         <v>1</v>
@@ -20742,10 +20685,10 @@
         <v>571</v>
       </c>
       <c r="E572" t="s">
-        <v>1109</v>
+        <v>1090</v>
       </c>
       <c r="F572" t="s">
-        <v>1110</v>
+        <v>1091</v>
       </c>
       <c r="G572" t="n">
         <v>1</v>
@@ -20771,10 +20714,10 @@
         <v>572</v>
       </c>
       <c r="E573" t="s">
-        <v>1111</v>
+        <v>1092</v>
       </c>
       <c r="F573" t="s">
-        <v>1112</v>
+        <v>1093</v>
       </c>
       <c r="G573" t="n">
         <v>1</v>
@@ -20800,10 +20743,10 @@
         <v>573</v>
       </c>
       <c r="E574" t="s">
-        <v>1113</v>
+        <v>1094</v>
       </c>
       <c r="F574" t="s">
-        <v>1114</v>
+        <v>1095</v>
       </c>
       <c r="G574" t="n">
         <v>2</v>
@@ -20829,10 +20772,10 @@
         <v>574</v>
       </c>
       <c r="E575" t="s">
-        <v>1115</v>
+        <v>1096</v>
       </c>
       <c r="F575" t="s">
-        <v>1116</v>
+        <v>1097</v>
       </c>
       <c r="G575" t="n">
         <v>1</v>
@@ -20858,10 +20801,10 @@
         <v>575</v>
       </c>
       <c r="E576" t="s">
-        <v>1117</v>
+        <v>1098</v>
       </c>
       <c r="F576" t="s">
-        <v>1118</v>
+        <v>1099</v>
       </c>
       <c r="G576" t="n">
         <v>1</v>
@@ -20887,10 +20830,10 @@
         <v>576</v>
       </c>
       <c r="E577" t="s">
-        <v>1119</v>
+        <v>1100</v>
       </c>
       <c r="F577" t="s">
-        <v>1120</v>
+        <v>1101</v>
       </c>
       <c r="G577" t="n">
         <v>1</v>
@@ -20916,10 +20859,10 @@
         <v>577</v>
       </c>
       <c r="E578" t="s">
-        <v>1121</v>
+        <v>1102</v>
       </c>
       <c r="F578" t="s">
-        <v>1122</v>
+        <v>1103</v>
       </c>
       <c r="G578" t="n">
         <v>1</v>
@@ -20945,10 +20888,10 @@
         <v>578</v>
       </c>
       <c r="E579" t="s">
-        <v>1123</v>
+        <v>1104</v>
       </c>
       <c r="F579" t="s">
-        <v>1124</v>
+        <v>1105</v>
       </c>
       <c r="G579" t="n">
         <v>1</v>
@@ -20974,10 +20917,10 @@
         <v>579</v>
       </c>
       <c r="E580" t="s">
-        <v>1125</v>
+        <v>1106</v>
       </c>
       <c r="F580" t="s">
-        <v>1126</v>
+        <v>1107</v>
       </c>
       <c r="G580" t="n">
         <v>1</v>
@@ -21003,10 +20946,10 @@
         <v>580</v>
       </c>
       <c r="E581" t="s">
-        <v>1127</v>
+        <v>1108</v>
       </c>
       <c r="F581" t="s">
-        <v>1128</v>
+        <v>1109</v>
       </c>
       <c r="G581" t="n">
         <v>1</v>
@@ -21032,10 +20975,10 @@
         <v>581</v>
       </c>
       <c r="E582" t="s">
-        <v>1129</v>
+        <v>1110</v>
       </c>
       <c r="F582" t="s">
-        <v>1130</v>
+        <v>1111</v>
       </c>
       <c r="G582" t="n">
         <v>1</v>
@@ -21061,10 +21004,10 @@
         <v>582</v>
       </c>
       <c r="E583" t="s">
-        <v>1131</v>
+        <v>1112</v>
       </c>
       <c r="F583" t="s">
-        <v>1132</v>
+        <v>1113</v>
       </c>
       <c r="G583" t="n">
         <v>1</v>
@@ -21090,10 +21033,10 @@
         <v>583</v>
       </c>
       <c r="E584" t="s">
-        <v>1133</v>
+        <v>1114</v>
       </c>
       <c r="F584" t="s">
-        <v>1134</v>
+        <v>1115</v>
       </c>
       <c r="G584" t="n">
         <v>1</v>
@@ -21119,10 +21062,10 @@
         <v>584</v>
       </c>
       <c r="E585" t="s">
-        <v>1135</v>
+        <v>1116</v>
       </c>
       <c r="F585" t="s">
-        <v>1136</v>
+        <v>1117</v>
       </c>
       <c r="G585" t="n">
         <v>1</v>
@@ -21148,10 +21091,10 @@
         <v>585</v>
       </c>
       <c r="E586" t="s">
-        <v>1137</v>
+        <v>1118</v>
       </c>
       <c r="F586" t="s">
-        <v>1138</v>
+        <v>1119</v>
       </c>
       <c r="G586" t="n">
         <v>1</v>
@@ -21177,10 +21120,10 @@
         <v>586</v>
       </c>
       <c r="E587" t="s">
-        <v>1139</v>
+        <v>1120</v>
       </c>
       <c r="F587" t="s">
-        <v>1140</v>
+        <v>1121</v>
       </c>
       <c r="G587" t="n">
         <v>1</v>
@@ -21206,10 +21149,10 @@
         <v>587</v>
       </c>
       <c r="E588" t="s">
-        <v>1141</v>
+        <v>1122</v>
       </c>
       <c r="F588" t="s">
-        <v>1142</v>
+        <v>1123</v>
       </c>
       <c r="G588" t="n">
         <v>1</v>
@@ -21235,10 +21178,10 @@
         <v>588</v>
       </c>
       <c r="E589" t="s">
-        <v>1143</v>
+        <v>1124</v>
       </c>
       <c r="F589" t="s">
-        <v>1144</v>
+        <v>1125</v>
       </c>
       <c r="G589" t="n">
         <v>1</v>
@@ -21264,10 +21207,10 @@
         <v>589</v>
       </c>
       <c r="E590" t="s">
-        <v>1145</v>
+        <v>1126</v>
       </c>
       <c r="F590" t="s">
-        <v>1146</v>
+        <v>1127</v>
       </c>
       <c r="G590" t="n">
         <v>1</v>
@@ -21293,10 +21236,10 @@
         <v>590</v>
       </c>
       <c r="E591" t="s">
-        <v>1147</v>
+        <v>1128</v>
       </c>
       <c r="F591" t="s">
-        <v>1148</v>
+        <v>1129</v>
       </c>
       <c r="G591" t="n">
         <v>1</v>
@@ -21322,10 +21265,10 @@
         <v>591</v>
       </c>
       <c r="E592" t="s">
-        <v>1149</v>
+        <v>1130</v>
       </c>
       <c r="F592" t="s">
-        <v>1150</v>
+        <v>1131</v>
       </c>
       <c r="G592" t="n">
         <v>1</v>
@@ -21351,10 +21294,10 @@
         <v>592</v>
       </c>
       <c r="E593" t="s">
-        <v>1151</v>
+        <v>1132</v>
       </c>
       <c r="F593" t="s">
-        <v>1152</v>
+        <v>1133</v>
       </c>
       <c r="G593" t="n">
         <v>1</v>
@@ -21380,10 +21323,10 @@
         <v>593</v>
       </c>
       <c r="E594" t="s">
-        <v>1153</v>
+        <v>1134</v>
       </c>
       <c r="F594" t="s">
-        <v>1154</v>
+        <v>1135</v>
       </c>
       <c r="G594" t="n">
         <v>1</v>
@@ -21409,10 +21352,10 @@
         <v>594</v>
       </c>
       <c r="E595" t="s">
-        <v>1155</v>
+        <v>1136</v>
       </c>
       <c r="F595" t="s">
-        <v>1156</v>
+        <v>1137</v>
       </c>
       <c r="G595" t="n">
         <v>1</v>
@@ -21438,10 +21381,10 @@
         <v>595</v>
       </c>
       <c r="E596" t="s">
-        <v>1157</v>
+        <v>1138</v>
       </c>
       <c r="F596" t="s">
-        <v>1158</v>
+        <v>1139</v>
       </c>
       <c r="G596" t="n">
         <v>1</v>
@@ -21467,10 +21410,10 @@
         <v>596</v>
       </c>
       <c r="E597" t="s">
-        <v>1159</v>
+        <v>1140</v>
       </c>
       <c r="F597" t="s">
-        <v>1160</v>
+        <v>1141</v>
       </c>
       <c r="G597" t="n">
         <v>1</v>
@@ -21496,10 +21439,10 @@
         <v>597</v>
       </c>
       <c r="E598" t="s">
-        <v>1161</v>
+        <v>1142</v>
       </c>
       <c r="F598" t="s">
-        <v>1162</v>
+        <v>1143</v>
       </c>
       <c r="G598" t="n">
         <v>1</v>
@@ -21525,10 +21468,10 @@
         <v>598</v>
       </c>
       <c r="E599" t="s">
-        <v>1163</v>
+        <v>1144</v>
       </c>
       <c r="F599" t="s">
-        <v>1164</v>
+        <v>1145</v>
       </c>
       <c r="G599" t="n">
         <v>1</v>
@@ -21554,10 +21497,10 @@
         <v>599</v>
       </c>
       <c r="E600" t="s">
-        <v>1165</v>
+        <v>1146</v>
       </c>
       <c r="F600" t="s">
-        <v>1166</v>
+        <v>1147</v>
       </c>
       <c r="G600" t="n">
         <v>1</v>
@@ -21583,10 +21526,10 @@
         <v>600</v>
       </c>
       <c r="E601" t="s">
-        <v>1167</v>
+        <v>1148</v>
       </c>
       <c r="F601" t="s">
-        <v>1168</v>
+        <v>1149</v>
       </c>
       <c r="G601" t="n">
         <v>1</v>
@@ -21612,10 +21555,10 @@
         <v>601</v>
       </c>
       <c r="E602" t="s">
-        <v>1169</v>
+        <v>1150</v>
       </c>
       <c r="F602" t="s">
-        <v>1170</v>
+        <v>1151</v>
       </c>
       <c r="G602" t="n">
         <v>1</v>
@@ -21641,10 +21584,10 @@
         <v>602</v>
       </c>
       <c r="E603" t="s">
-        <v>1171</v>
+        <v>1152</v>
       </c>
       <c r="F603" t="s">
-        <v>1172</v>
+        <v>1153</v>
       </c>
       <c r="G603" t="n">
         <v>1</v>
@@ -21670,10 +21613,10 @@
         <v>603</v>
       </c>
       <c r="E604" t="s">
-        <v>1173</v>
+        <v>1154</v>
       </c>
       <c r="F604" t="s">
-        <v>1174</v>
+        <v>1155</v>
       </c>
       <c r="G604" t="n">
         <v>4</v>
@@ -21699,10 +21642,10 @@
         <v>604</v>
       </c>
       <c r="E605" t="s">
-        <v>1175</v>
+        <v>1156</v>
       </c>
       <c r="F605" t="s">
-        <v>1176</v>
+        <v>1157</v>
       </c>
       <c r="G605" t="n">
         <v>1</v>
@@ -21728,10 +21671,10 @@
         <v>605</v>
       </c>
       <c r="E606" t="s">
-        <v>1177</v>
+        <v>1158</v>
       </c>
       <c r="F606" t="s">
-        <v>1178</v>
+        <v>1159</v>
       </c>
       <c r="G606" t="n">
         <v>1</v>
@@ -21757,10 +21700,10 @@
         <v>606</v>
       </c>
       <c r="E607" t="s">
-        <v>1179</v>
+        <v>1160</v>
       </c>
       <c r="F607" t="s">
-        <v>1180</v>
+        <v>1161</v>
       </c>
       <c r="G607" t="n">
         <v>1</v>
@@ -21786,10 +21729,10 @@
         <v>607</v>
       </c>
       <c r="E608" t="s">
-        <v>1181</v>
+        <v>1162</v>
       </c>
       <c r="F608" t="s">
-        <v>1182</v>
+        <v>1163</v>
       </c>
       <c r="G608" t="n">
         <v>1</v>
@@ -21815,10 +21758,10 @@
         <v>608</v>
       </c>
       <c r="E609" t="s">
-        <v>1183</v>
+        <v>1164</v>
       </c>
       <c r="F609" t="s">
-        <v>1184</v>
+        <v>1165</v>
       </c>
       <c r="G609" t="n">
         <v>1</v>
@@ -21844,10 +21787,10 @@
         <v>609</v>
       </c>
       <c r="E610" t="s">
-        <v>1185</v>
+        <v>1166</v>
       </c>
       <c r="F610" t="s">
-        <v>1186</v>
+        <v>1167</v>
       </c>
       <c r="G610" t="n">
         <v>1</v>
@@ -21873,10 +21816,10 @@
         <v>610</v>
       </c>
       <c r="E611" t="s">
-        <v>1187</v>
+        <v>1168</v>
       </c>
       <c r="F611" t="s">
-        <v>1188</v>
+        <v>1169</v>
       </c>
       <c r="G611" t="n">
         <v>1</v>
@@ -21902,10 +21845,10 @@
         <v>611</v>
       </c>
       <c r="E612" t="s">
-        <v>1189</v>
+        <v>1170</v>
       </c>
       <c r="F612" t="s">
-        <v>1190</v>
+        <v>1171</v>
       </c>
       <c r="G612" t="n">
         <v>1</v>
@@ -21931,10 +21874,10 @@
         <v>612</v>
       </c>
       <c r="E613" t="s">
-        <v>1191</v>
+        <v>1172</v>
       </c>
       <c r="F613" t="s">
-        <v>1192</v>
+        <v>1173</v>
       </c>
       <c r="G613" t="n">
         <v>1</v>
@@ -21960,10 +21903,10 @@
         <v>613</v>
       </c>
       <c r="E614" t="s">
-        <v>1193</v>
+        <v>1174</v>
       </c>
       <c r="F614" t="s">
-        <v>1194</v>
+        <v>1175</v>
       </c>
       <c r="G614" t="n">
         <v>1</v>
@@ -21989,10 +21932,10 @@
         <v>614</v>
       </c>
       <c r="E615" t="s">
-        <v>1195</v>
+        <v>1176</v>
       </c>
       <c r="F615" t="s">
-        <v>1196</v>
+        <v>1177</v>
       </c>
       <c r="G615" t="n">
         <v>1</v>
@@ -22018,10 +21961,10 @@
         <v>615</v>
       </c>
       <c r="E616" t="s">
-        <v>1197</v>
+        <v>1178</v>
       </c>
       <c r="F616" t="s">
-        <v>1198</v>
+        <v>1179</v>
       </c>
       <c r="G616" t="n">
         <v>1</v>
@@ -22047,10 +21990,10 @@
         <v>616</v>
       </c>
       <c r="E617" t="s">
-        <v>1199</v>
+        <v>1180</v>
       </c>
       <c r="F617" t="s">
-        <v>1200</v>
+        <v>1181</v>
       </c>
       <c r="G617" t="n">
         <v>1</v>
@@ -22076,10 +22019,10 @@
         <v>617</v>
       </c>
       <c r="E618" t="s">
-        <v>1201</v>
+        <v>1182</v>
       </c>
       <c r="F618" t="s">
-        <v>1202</v>
+        <v>1183</v>
       </c>
       <c r="G618" t="n">
         <v>1</v>
@@ -22105,10 +22048,10 @@
         <v>618</v>
       </c>
       <c r="E619" t="s">
-        <v>1203</v>
+        <v>1184</v>
       </c>
       <c r="F619" t="s">
-        <v>1204</v>
+        <v>1185</v>
       </c>
       <c r="G619" t="n">
         <v>1</v>
@@ -22134,10 +22077,10 @@
         <v>619</v>
       </c>
       <c r="E620" t="s">
-        <v>1205</v>
+        <v>1186</v>
       </c>
       <c r="F620" t="s">
-        <v>1206</v>
+        <v>1187</v>
       </c>
       <c r="G620" t="n">
         <v>1</v>
@@ -22163,10 +22106,10 @@
         <v>620</v>
       </c>
       <c r="E621" t="s">
-        <v>1207</v>
+        <v>1188</v>
       </c>
       <c r="F621" t="s">
-        <v>1208</v>
+        <v>1189</v>
       </c>
       <c r="G621" t="n">
         <v>1</v>
@@ -22192,10 +22135,10 @@
         <v>621</v>
       </c>
       <c r="E622" t="s">
-        <v>791</v>
+        <v>775</v>
       </c>
       <c r="F622" t="s">
-        <v>792</v>
+        <v>776</v>
       </c>
       <c r="G622" t="n">
         <v>1</v>
@@ -22221,10 +22164,10 @@
         <v>622</v>
       </c>
       <c r="E623" t="s">
-        <v>1209</v>
+        <v>1190</v>
       </c>
       <c r="F623" t="s">
-        <v>1210</v>
+        <v>1191</v>
       </c>
       <c r="G623" t="n">
         <v>1</v>
@@ -22250,10 +22193,10 @@
         <v>623</v>
       </c>
       <c r="E624" t="s">
-        <v>1211</v>
+        <v>1192</v>
       </c>
       <c r="F624" t="s">
-        <v>1212</v>
+        <v>1193</v>
       </c>
       <c r="G624" t="n">
         <v>1</v>
@@ -22279,10 +22222,10 @@
         <v>624</v>
       </c>
       <c r="E625" t="s">
-        <v>1213</v>
+        <v>1194</v>
       </c>
       <c r="F625" t="s">
-        <v>1214</v>
+        <v>1195</v>
       </c>
       <c r="G625" t="n">
         <v>1</v>
@@ -22308,10 +22251,10 @@
         <v>625</v>
       </c>
       <c r="E626" t="s">
-        <v>1215</v>
+        <v>1196</v>
       </c>
       <c r="F626" t="s">
-        <v>1216</v>
+        <v>1197</v>
       </c>
       <c r="G626" t="n">
         <v>1</v>
@@ -22337,10 +22280,10 @@
         <v>626</v>
       </c>
       <c r="E627" t="s">
-        <v>1217</v>
+        <v>1198</v>
       </c>
       <c r="F627" t="s">
-        <v>1218</v>
+        <v>1199</v>
       </c>
       <c r="G627" t="n">
         <v>1</v>
@@ -22366,10 +22309,10 @@
         <v>627</v>
       </c>
       <c r="E628" t="s">
-        <v>1219</v>
+        <v>1200</v>
       </c>
       <c r="F628" t="s">
-        <v>1220</v>
+        <v>1201</v>
       </c>
       <c r="G628" t="n">
         <v>1</v>
@@ -22395,10 +22338,10 @@
         <v>628</v>
       </c>
       <c r="E629" t="s">
-        <v>1221</v>
+        <v>1202</v>
       </c>
       <c r="F629" t="s">
-        <v>1222</v>
+        <v>1203</v>
       </c>
       <c r="G629" t="n">
         <v>1</v>
@@ -22424,10 +22367,10 @@
         <v>629</v>
       </c>
       <c r="E630" t="s">
-        <v>1223</v>
+        <v>1204</v>
       </c>
       <c r="F630" t="s">
-        <v>1224</v>
+        <v>1205</v>
       </c>
       <c r="G630" t="n">
         <v>1</v>
@@ -22453,10 +22396,10 @@
         <v>630</v>
       </c>
       <c r="E631" t="s">
-        <v>1225</v>
+        <v>1206</v>
       </c>
       <c r="F631" t="s">
-        <v>1226</v>
+        <v>1207</v>
       </c>
       <c r="G631" t="n">
         <v>1</v>
@@ -22482,10 +22425,10 @@
         <v>631</v>
       </c>
       <c r="E632" t="s">
-        <v>1227</v>
+        <v>1208</v>
       </c>
       <c r="F632" t="s">
-        <v>1228</v>
+        <v>1209</v>
       </c>
       <c r="G632" t="n">
         <v>1</v>
@@ -22511,10 +22454,10 @@
         <v>632</v>
       </c>
       <c r="E633" t="s">
-        <v>1229</v>
+        <v>1210</v>
       </c>
       <c r="F633" t="s">
-        <v>1230</v>
+        <v>1211</v>
       </c>
       <c r="G633" t="n">
         <v>1</v>
@@ -22540,10 +22483,10 @@
         <v>633</v>
       </c>
       <c r="E634" t="s">
-        <v>1231</v>
+        <v>1212</v>
       </c>
       <c r="F634" t="s">
-        <v>1232</v>
+        <v>1213</v>
       </c>
       <c r="G634" t="n">
         <v>1</v>
@@ -22569,10 +22512,10 @@
         <v>634</v>
       </c>
       <c r="E635" t="s">
-        <v>1233</v>
+        <v>1214</v>
       </c>
       <c r="F635" t="s">
-        <v>1234</v>
+        <v>1215</v>
       </c>
       <c r="G635" t="n">
         <v>1</v>
@@ -22598,10 +22541,10 @@
         <v>635</v>
       </c>
       <c r="E636" t="s">
-        <v>1235</v>
+        <v>1216</v>
       </c>
       <c r="F636" t="s">
-        <v>1236</v>
+        <v>1217</v>
       </c>
       <c r="G636" t="n">
         <v>1</v>
@@ -22627,10 +22570,10 @@
         <v>636</v>
       </c>
       <c r="E637" t="s">
-        <v>1237</v>
+        <v>1218</v>
       </c>
       <c r="F637" t="s">
-        <v>1238</v>
+        <v>1219</v>
       </c>
       <c r="G637" t="n">
         <v>1</v>
@@ -22656,10 +22599,10 @@
         <v>637</v>
       </c>
       <c r="E638" t="s">
-        <v>1239</v>
+        <v>1220</v>
       </c>
       <c r="F638" t="s">
-        <v>1240</v>
+        <v>1221</v>
       </c>
       <c r="G638" t="n">
         <v>1</v>
@@ -22685,10 +22628,10 @@
         <v>638</v>
       </c>
       <c r="E639" t="s">
-        <v>1241</v>
+        <v>1222</v>
       </c>
       <c r="F639" t="s">
-        <v>1242</v>
+        <v>1223</v>
       </c>
       <c r="G639" t="n">
         <v>1</v>
@@ -22714,10 +22657,10 @@
         <v>639</v>
       </c>
       <c r="E640" t="s">
-        <v>1243</v>
+        <v>1224</v>
       </c>
       <c r="F640" t="s">
-        <v>1244</v>
+        <v>1225</v>
       </c>
       <c r="G640" t="n">
         <v>4</v>
@@ -22743,10 +22686,10 @@
         <v>640</v>
       </c>
       <c r="E641" t="s">
-        <v>1245</v>
+        <v>1226</v>
       </c>
       <c r="F641" t="s">
-        <v>1246</v>
+        <v>1227</v>
       </c>
       <c r="G641" t="n">
         <v>1</v>
@@ -22772,10 +22715,10 @@
         <v>641</v>
       </c>
       <c r="E642" t="s">
-        <v>1247</v>
+        <v>1228</v>
       </c>
       <c r="F642" t="s">
-        <v>1248</v>
+        <v>1229</v>
       </c>
       <c r="G642" t="n">
         <v>1</v>
@@ -22801,10 +22744,10 @@
         <v>642</v>
       </c>
       <c r="E643" t="s">
-        <v>1249</v>
+        <v>1230</v>
       </c>
       <c r="F643" t="s">
-        <v>1250</v>
+        <v>1231</v>
       </c>
       <c r="G643" t="n">
         <v>1</v>
@@ -22830,10 +22773,10 @@
         <v>643</v>
       </c>
       <c r="E644" t="s">
-        <v>1251</v>
+        <v>1232</v>
       </c>
       <c r="F644" t="s">
-        <v>1252</v>
+        <v>1233</v>
       </c>
       <c r="G644" t="n">
         <v>1</v>
@@ -22859,10 +22802,10 @@
         <v>644</v>
       </c>
       <c r="E645" t="s">
-        <v>1253</v>
+        <v>1234</v>
       </c>
       <c r="F645" t="s">
-        <v>1254</v>
+        <v>1235</v>
       </c>
       <c r="G645" t="n">
         <v>1</v>
@@ -22888,10 +22831,10 @@
         <v>645</v>
       </c>
       <c r="E646" t="s">
-        <v>1255</v>
+        <v>1236</v>
       </c>
       <c r="F646" t="s">
-        <v>1256</v>
+        <v>1237</v>
       </c>
       <c r="G646" t="n">
         <v>1</v>
@@ -22917,10 +22860,10 @@
         <v>646</v>
       </c>
       <c r="E647" t="s">
-        <v>1257</v>
+        <v>1238</v>
       </c>
       <c r="F647" t="s">
-        <v>1258</v>
+        <v>1239</v>
       </c>
       <c r="G647" t="n">
         <v>3</v>
@@ -22946,10 +22889,10 @@
         <v>647</v>
       </c>
       <c r="E648" t="s">
-        <v>1259</v>
+        <v>1240</v>
       </c>
       <c r="F648" t="s">
-        <v>1260</v>
+        <v>1241</v>
       </c>
       <c r="G648" t="n">
         <v>1</v>
@@ -22975,10 +22918,10 @@
         <v>648</v>
       </c>
       <c r="E649" t="s">
-        <v>1261</v>
+        <v>1242</v>
       </c>
       <c r="F649" t="s">
-        <v>1262</v>
+        <v>1243</v>
       </c>
       <c r="G649" t="n">
         <v>1</v>
@@ -23004,10 +22947,10 @@
         <v>649</v>
       </c>
       <c r="E650" t="s">
-        <v>1263</v>
+        <v>1244</v>
       </c>
       <c r="F650" t="s">
-        <v>1264</v>
+        <v>1245</v>
       </c>
       <c r="G650" t="n">
         <v>1</v>
@@ -23033,10 +22976,10 @@
         <v>650</v>
       </c>
       <c r="E651" t="s">
-        <v>1265</v>
+        <v>1246</v>
       </c>
       <c r="F651" t="s">
-        <v>1266</v>
+        <v>1247</v>
       </c>
       <c r="G651" t="n">
         <v>1</v>
